--- a/data/b2border/sales_order_data.xlsx
+++ b/data/b2border/sales_order_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/python/AutoTest/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/python/AutoTest/data/b2border/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99D2D96-E3F8-EE4C-AA7C-876E49BE988C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94612141-7E1F-7C45-8FF7-AF95545DE53B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,7 +390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
   <si>
     <t>V1.0</t>
   </si>
@@ -445,10 +445,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>Yes</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>Path</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -477,10 +473,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>CheckTpye</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>ExpectedCode</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -501,10 +493,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>IsDepend</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>DependCase</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -525,10 +513,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>{"success":"success","message":null,"detailMsg":{"data":null}}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>{"billId":"id"}</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -626,6 +610,17 @@
   </si>
   <si>
     <t>{"id":"","creator":null,"createTime":"","modifier":null,"modifiedTime":"","dr":null,"ts":null,"serialnum":null,"orderReceiveAddress":{"orderId":null,"id":null,"creator":null,"dr":"1","receiveAddressId":"8fe72429-8c25-4a92-b508-ded3abcc37d2","receiveAddressName":null,"receiver":"周佳","receiverTel":"13518639999","receiverPhone":"13518639999","country":"中国","countryId":"COUNTRY-01","receiverProvince":"山东省","receiverProvinceId":"37","receiverCity":"淄博市","receiverCityId":"370300000000","receiverCounty":"张店区","receiverCountyId":"370303000000","receiverTown":"","receiverTownId":"","receiverAddress":"山东淄博张店联通路东方之珠","receiverZipcode":null,"persistStatus":"new"},"orderInvoice":{"orderId":null,"id":null,"creator":null,"dr":null,"invoiceId":"5df5c54a-bef3-4fab-9ff8-2d9dad5d9b5f","invoiceType":"增值税发票","invoiceContent":null,"invoiceTitle":"山东春和景明文化传播有限公司","invoiceTaxId":null,"invoiceBank":"中国农业银行股份有限公司淄博东方分理处","invoiceAccount":null,"invoiceSubBank":null,"persistStatus":"new"},"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"closer":null,"remark":null,"isClose":null,"rejecter":null,"totalNum":"10.00","closeTime":"","isDeClose":null,"orderCode":null,"orderDate":1585128003272,"saleModel":"01","saleOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","billTypeId":"SaleOrder","contractId":null,"costTypeId":null,"currencyId":"7cbc1420-737d-4206-97e3-140ebdbe841f","customerId":"1878731f-0aca-4e9b-8b27-5944910f1509","promAmount":null,"rejectTime":"","srcOrderId":null,"supplierId":null,"closeReason":null,"logisticsId":null,"orderSource":"02","orderTypeId":"0yDZwkYyas4KNNKM4RNF","salesDeptId":"1d5f2aff-5455-4e40-8818-d0e2bbc7e37a","totalAmount":"27890.00","totalVolume":"0.0000","totalWeight":"0.0000","creationTime":"","deliveryDate":1585128003263,"marketAreaId":null,"offsetAmount":"0.00","rejectReason":null,"settleModeId":null,"srcOrderCode":null,"sycnNCStatus":null,"approveStatus":null,"orderStatusId":"01","srcReqOrderId":null,"sycnOutStatus":null,"approveOpinion":null,"isBomCalcPrice":null,"returnReasonId":null,"salesManagerId":"8e73d0b7-5d0e-4c9d-bcdb-1db337b0b971","totalNetWeight":"0.0000","accountPeriodId":"a1ee592c-4412-42dc-8cee-94d2ac8aa355","goodsOutStyleId":null,"orderStatusCode":null,"orderStatusName":null,"srcReqOrderCode":null,"totalDealAmount":"27890.00","transportModeId":null,"logisticsBillCode":null,"originalOrderCode":null,"receiveCustomerId":"1878731f-0aca-4e9b-8b27-5944910f1509","totalReturnAmount":null,"superiorCustomerId":null,"underPaymentModeId":null,"maxPreferentialMoney":null,"settleFinancialOrgId":null,"totalGoodsSuppleAmount":"0.00","persistStatus":"new","orderReceiveAddressName":"中国山东省淄博市张店区山东淄博张店联通路东方之珠","orderReceiveAddressFirstReceiver":"周佳","orderReceiveAddressFirstReceiverTel":"13518639999","orderInvoiceName":"山东春和景明文化传播有限公司","ext01Code":null,"ext01Name":null,"ext02Name":null,"saleOrgName":null,"currencyName":"人民币","customerName":null,"supplierName":null,"logisticsName":null,"orderTypeName":null,"salesDeptName":null,"marketAreaName":null,"settleModeName":null,"salesManagerName":null,"accountPeriodName":"001","transportModeName":null,"receiveCustomerName":null,"superiorCustomerName":null,"settleFinancialOrgName":null,"flushSelected":[],"currencyCode":"CNY","orderItems":[{"id":null,"creator":null,"createTime":"","modifier":null,"modifiedTime":"","dr":null,"ts":"","serialnum":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"amount":"27890.00","isGift":0,"remark":null,"rowNum":10,"volume":null,"weight":null,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","isClose":0,"mainNum":"10","signNum":null,"version":"1","bomSplit":null,"goodsImg":"/group1/M00/00/00/rBFAIV0wmbyASJn2AAE4-1jmRp4811.jpg","orderNum":"10.00000000","basePrice":"2789.000000","dealPrice":"2789.000000","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","isDeClose":0,"netWeight":null,"productId":"996cc839-60e8-4500-82c6-9a7c7b95646d","projectId":null,"promPrice":"2789.000000","refundNum":null,"returnNum":null,"rowVolume":0,"rowWeight":0,"salePrice":"2789.000000","batchNumId":null,"currencyId":"7cbc1420-737d-4206-97e3-140ebdbe841f","dealAmount":"27890.00","isOptional":"0","isPromGift":null,"promAmount":null,"promotinId":"","srcOrderId":null,"stockInNum":null,"supplierId":null,"batchCodeId":null,"deliveryNum":null,"existingNum":null,"isDiscounts":null,"logisticsId":null,"priceTypeId":null,"stockOutNum":null,"availableNum":null,"batchNumCode":null,"batchNumName":null,"offsetAmount":null,"replenishNum":null,"returnTypeId":null,"rowNetWeight":0,"srcOrderCode":null,"volumeUnitId":null,"weightUnitId":null,"coordinateNum":null,"isServiceType":null,"mainNumUnitId":"UNIT-12","priceTypeCode":null,"priceTypeName":null,"productLineId":"13c512df-ad18-48e5-b75d-166a534cc410","srcReqOrderId":null,"supplierPrice":null,"baseGoodsOptId":null,"conversionRate":"1.000000","orderNumUnitId":"UNIT-12","returnReasonId":null,"srcOrderItemId":null,"goodsCategoryId":null,"goodsSupplement":0,"originalGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","srcReqOrderCode":null,"deliveryInvOrgId":"ebcd635d-237e-4a15-819c-3983ac49436f","goodsDisplayName":"小雅AI音箱旗舰版_石墨绿","planDeliveryDate":1585128076704,"baseGoodsOptValue":null,"srcReqOrderItemId":null,"totalReturnAmount":null,"srcOrderBilltypeId":null,"srcOrderTrantypeId":null,"deliveryWarehouseId":null,"supplementAccountId":null,"goodsSupplementPrice":null,"settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","persistStatus":"new","productName":null,"projectName":null,"currencyName":"人民币","promotinName":"","supplierName":null,"logisticsName":null,"volumeUnitName":null,"weightUnitName":null,"mainNumUnitName":"个","productLineName":"喜日","orderNumUnitName":"个","goodsCategoryName":null,"deliveryInvOrgName":"上海喜日电子科技有限公司","deliveryWarehouseName":null,"settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","currencyCode":"CNY","creationTime":"","description":""}],"orderItemBoms":[{"id":null,"creator":null,"createTime":"","modifier":null,"modifiedTime":"","dr":null,"ts":"","serialnum":null,"settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"amount":"27890.00","isGift":0,"remark":null,"rowNum":10,"volume":null,"weight":null,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","isClose":0,"mainNum":"10.000000","signNum":"","version":"1","currency":null,"goodsImg":"/group1/M00/00/00/rBFAIV0wmbyASJn2AAE4-1jmRp4811.jpg","orderNum":"10.000000","parentRowNum":10,"basePrice":"","costPrice":null,"dealPrice":"2789.000000","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","isDeClose":0,"netWeight":null,"projectId":null,"refundNum":"","returnNum":"","rowVolume":0,"rowWeight":0,"salePrice":"2789.000000","dealAmount":"27890.00","isOutClose":null,"srcOrderId":null,"stockInNum":"","supplierId":null,"closeReason":null,"deliveryNum":"","existingNum":"","logisticsId":null,"stockOutNum":"","offsetAmount":"","replenishNum":"","rowNetWeight":0,"srcOrderCode":null,"volumeUnitId":null,"weightUnitId":null,"childGoodsQty":1,"coordinateNum":"","goodsSupplementPrice":"","mainNumUnitId":"UNIT-12","parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","productLineId":"13c512df-ad18-48e5-b75d-166a534cc410","srcReqOrderId":null,"baseGoodsOptId":null,"conversionRate":"1.000000","orderNumUnitId":"UNIT-12","srcOrderItemId":null,"goodsSupplement":0,"originalGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsName":"小雅AI音箱旗舰版_石墨绿","srcReqOrderCode":null,"deliveryInvOrgId":"ebcd635d-237e-4a15-819c-3983ac49436f","planDeliveryDate":1585128076000,"baseGoodsOptValue":null,"deliveryWarehouseId":null,"srcOrderItemBomId":null,"srcReqOrderItemBomId":null,"srcReqOrderItemId":null,"bomSplit":null,"productId":"996cc839-60e8-4500-82c6-9a7c7b95646d","promPrice":"2789.000000","batchNumId":null,"currencyId":null,"isOptional":"0","isPromGift":null,"promAmount":null,"promotinId":null,"batchCodeId":null,"isDiscounts":null,"priceTypeId":null,"availableNum":null,"batchNumCode":null,"batchNumName":null,"returnTypeId":null,"isServiceType":null,"priceTypeCode":null,"priceTypeName":null,"supplierPrice":null,"returnReasonId":null,"goodsCategoryId":null,"goodsDisplayName":"小雅AI音箱旗舰版_石墨绿","totalReturnAmount":null,"srcOrderBilltypeId":null,"srcOrderTrantypeId":null,"supplementAccountId":null,"persistStatus":"new","settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","currencyName":null,"projectName":null,"supplierName":null,"logisticsName":null,"volumeUnitName":null,"weightUnitName":null,"mainNumUnitName":"个","productLineName":"喜日","orderNumUnitName":"个","deliveryInvOrgName":"上海喜日电子科技有限公司","deliveryWarehouseName":null,"productName":null,"promotinName":null,"goodsCategoryName":null,"creationTime":"","description":""}]}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckType</t>
+  </si>
+  <si>
+    <t>{"success":"success","message":"&amp;#21462;&amp;#28040;&amp;#23457;&amp;#25209;&amp;#25104;&amp;#21151;","detailMsg":{"data":[{"id":"8c3bce69-4400-403c-a3e1-d7b83eee9b55","dr":0,"ts":1589426638603,"creator":"smq","creationTime":1589424396000,"modifier":"smq","modifiedTime":1589426638603,"persistStatus":"upd","promptMessage":null,"state":1,"approver":"smq","approveTime":1589426638603,"approveOpinion":null,"sycnNCStatus":null,"sycnOutStatus":null,"saleOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","saleOrgCode":"1101","saleOrgName":"上海证大喜马拉雅网络科技有限公司","supplierId":null,"supplierCode":null,"supplierName":null,"receiveCustomerId":"1878731f-0aca-4e9b-8b27-5944910f1509","receiveCustomerCode":"10002304","receiveCustomerName":"山东春和景明文化传播有限公司","contractId":null,"contractCode":null,"contractName":null,"settleFinancialOrgId":null,"settleFinancialOrgCode":null,"settleFinancialOrgName":null,"sameFinancialOrg":false,"orderTypeId":"0yDZwkYyas4KNNKM4RNF","orderTypeCode":"30-Cxx-02","orderTypeName":"先货后款","billTypeId":"SaleOrder","billTypeCode":"SaleOrder","billTypeName":"销售订单","costTypeId":null,"costTypeCode":null,"costTypeName":null,"saleModel":"01","orderCode":"SOO20200514000002","orderDate":1589424479000,"orderStatusId":"8255c4d2-cb34-49e1-aa20-633b5d1d729e","orderStatusCode":"02","orderStatusName":"已提交","customerId":"1878731f-0aca-4e9b-8b27-5944910f1509","customerCode":"10002304","customerName":"山东春和景明文化传播有限公司","marketAreaId":null,"marketAreaCode":null,"marketAreaName":null,"salesManagerId":"8e73d0b7-5d0e-4c9d-bcdb-1db337b0b971","salesManagerCode":"3527","salesManagerName":"诸佳艺","salesDeptId":"1d5f2aff-5455-4e40-8818-d0e2bbc7e37a","salesDeptCode":"01010101","salesDeptName":"区域招商","transportModeId":null,"transportModeCode":null,"transportModeName":null,"settleModeId":null,"settleModeCode":null,"settleModeName":null,"deliveryDate":1589424479000,"totalNum":10.00000000,"currencyId":"7cbc1420-737d-4206-97e3-140ebdbe841f","currencyCode":"CNY","currencyName":"人民币","currencyPriceScale":6,"currencyAmountScale":2,"totalDealAmount":27890.00000000,"totalAmount":27890.00000000,"promAmount":null,"offsetAmount":null,"totalWeight":0E-8,"totalNetWeight":0E-8,"totalVolume":0E-8,"orderSource":"02","isClose":0,"closer":null,"closeTime":null,"isDeClose":0,"deCloser":null,"deCloseTime":null,"closeReason":null,"remark":"接口自动化新增销售订单","rejecter":null,"rejectTime":null,"rejectReason":null,"srcOrderCode":null,"srcOrderId":null,"srcReqOrderCode":"REQ20200514000002","srcReqOrderId":"0huNC3DukiIiu1eyfyYj","orderReceiveAddress":{"id":"0BGeo6llZU5foKao3uJv","dr":0,"ts":1589425916000,"creator":"smq","creationTime":1589424396000,"modifier":"smq","modifiedTime":1589425916000,"persistStatus":"nrm","promptMessage":null,"orderId":"8c3bce69-4400-403c-a3e1-d7b83eee9b55","receiveAddressId":"8fe72429-8c25-4a92-b508-ded3abcc37d2","receiver":"周佳","receiverTel":"13518639999","receiverPhone":"13518639999","country":"中国","countryId":"COUNTRY-01","receiverProvince":"山东省","receiverProvinceId":"37","receiverCity":"淄博市","receiverCityId":"370300000000","receiverCounty":"张店区","receiverCountyId":"370303000000","receiverTown":"","receiverTownId":"","receiverAddress":"山东淄博张店联通路东方之珠","receiverZipcode":null},"orderInvoice":{"id":"0Wa4vb0XJfnLexX0tfBY","dr":0,"ts":1589425916000,"creator":"smq","creationTime":1589424396000,"modifier":"smq","modifiedTime":1589425916000,"persistStatus":"nrm","promptMessage":null,"orderId":"8c3bce69-4400-403c-a3e1-d7b83eee9b55","invoiceId":"5df5c54a-bef3-4fab-9ff8-2d9dad5d9b5f","invoiceType":"增值税发票","invoiceContent":null,"invoiceTitle":"山东春和景明文化传播有限公司","invoiceTaxId":null,"invoiceBank":"中国农业银行股份有限公司淄博东方分理处","invoiceAccount":null,"invoiceSubBank":null},"orderReceiveAddressStr":null,"orderInvoiceStr":null,"orderItems":[{"id":"0GcXD31jCJ7hSWujOOQ6","dr":0,"ts":1589424396000,"creator":"smq","creationTime":1589424396000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"8c3bce69-4400-403c-a3e1-d7b83eee9b55","orderCode":"SOO20200514000002","orderBillType":"SaleOrder","customerId":"1878731f-0aca-4e9b-8b27-5944910f1509","customerName":null,"rowNum":"10","productId":"996cc839-60e8-4500-82c6-9a7c7b95646d","goodsCategoryId":null,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsDisplayName":"小雅AI音箱旗舰版_石墨绿","goodsImg":"/group1/M00/00/00/rBFAIV0wmbyASJn2AAE4-1jmRp4811.jpg","productLineId":"13c512df-ad18-48e5-b75d-166a534cc410","rowWeight":0E-8,"weight":null,"rowNetWeight":0E-8,"netWeight":null,"weightUnitId":null,"weightUnitCode":null,"weightUnitName":null,"rowVolume":0E-8,"volume":null,"volumeUnitId":null,"volumeUnitCode":null,"volumeUnitName":null,"orderNum":10.00000000,"orderNumUnitId":"UNIT-12","orderNumUnitCode":"EA","orderNumUnitName":"个","mainNum":10.00000000,"mainNumUnitId":"UNIT-12","mainNumUnitCode":"EA","mainNumUnitName":"个","conversionRate":1.00000000,"basePrice":2789.00000000,"supplierPrice":null,"salePrice":2789.00000000,"promPrice":2789.00000000,"dealPrice":2789.00000000,"amount":27890.00000000,"promAmount":null,"offsetAmount":null,"dealAmount":27890.00000000,"currencyId":"7cbc1420-737d-4206-97e3-140ebdbe841f","currencyCode":"CNY","currencyName":"人民币","currencySign":"￥","currencyAmountScale":2,"currencyPriceScale":6,"isGift":0,"logisticsId":null,"logisticsCode":null,"logisticsName":null,"promotinId":null,"promotinCode":null,"promotinName":null,"planDeliveryDate":1589424531000,"deliveryInvOrgId":"ebcd635d-237e-4a15-819c-3983ac49436f","deliveryInvOrgCode":"1302","deliveryInvOrgName":"上海喜日电子科技有限公司","deliveryWarehouseId":null,"deliveryWarehouseCode":null,"deliveryWarehouseName":null,"isClose":0,"isDeClose":0,"remark":null,"deliveryNum":0E-8,"stockInNum":0E-8,"stockOutNum":0E-8,"returnNum":0E-8,"refundNum":0E-8,"signNum":0E-8,"replenishNum":0E-8,"coordinateNum":0E-8,"srcOrderCode":null,"srcOrderId":null,"srcOrderItemId":null,"srcOrderTrantypeId":null,"srcOrderBilltypeId":null,"srcReqOrderCode":"REQ20200514000002","srcReqOrderId":"0huNC3DukiIiu1eyfyYj","srcReqOrderItemId":null,"totalReturnAmount":null,"returnReasonId":null,"returnReasonCode":null,"returnReasonName":null,"returnTypeId":null,"returnTypeCode":null,"returnTypeName":null,"orderPromRels":[],"orderAttachments":[],"version":1,"originalGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","settleFinancialOrgCode":"1101","settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","projectId":null,"projectCode":null,"projectName":null,"baseGoodsOptId":null,"baseGoodsOptValue":null,"supplierId":null,"supplierCode":null,"supplierName":null,"batchCodeId":null,"batchCodeCode":null,"batchCodeName":null,"goodsSupplement":0,"srcContractId":null,"srcContractCode":null,"srcContractType":null,"srcQuoteId":null,"goodsSupplementPrice":null,"offsetDetailsDtoList":[],"existingNum":null,"availableNum":null,"closeReason":null,"orderCorrelationMoney":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"bomSplit":null}],"orderItemBoms":[{"id":"090ijrAtYnKzsoAjCqkZ","dr":0,"ts":1589424396000,"creator":"smq","creationTime":1589424396000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"8c3bce69-4400-403c-a3e1-d7b83eee9b55","orderItemId":"0GcXD31jCJ7hSWujOOQ6","parentRowNum":"10","parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsName":"小雅AI音箱旗舰版_石墨绿","rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsImg":"/group1/M00/00/00/rBFAIV0wmbyASJn2AAE4-1jmRp4811.jpg","isGift":0,"productLineId":"13c512df-ad18-48e5-b75d-166a534cc410","rowWeight":0E-8,"weight":null,"rowNetWeight":0E-8,"netWeight":null,"weightUnitId":null,"weightUnitCode":null,"weightUnitName":null,"rowVolume":0E-8,"volume":null,"volumeUnitId":null,"volumeUnitCode":null,"volumeUnitName":null,"orderNum":10.00000000,"orderNumUnitId":"UNIT-12","orderNumUnitCode":"EA","orderNumUnitName":"个","mainNum":10.00000000,"mainNumUnitId":"UNIT-12","mainNumUnitCode":"EA","mainNumUnitName":"个","conversionRate":1.00000000,"basePrice":null,"salePrice":2789.00000000,"amount":27890.00000000,"dealPrice":2789.00000000,"dealAmount":27890.00000000,"currency":null,"planDeliveryDate":1589424531000,"deliveryInvOrgId":"ebcd635d-237e-4a15-819c-3983ac49436f","deliveryWarehouseId":null,"baseGoodsOptId":null,"baseGoodsOptVals":null,"baseGoodsOptValue":null,"version":1,"originalGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","childGoodsQty":1.00000000,"projectId":null,"supplierId":null,"srcOrderCode":null,"srcOrderId":null,"srcOrderItemId":null,"srcOrderItemBomId":null,"srcReqOrderCode":"REQ20200514000002","goodsSupplement":0,"srcReqOrderId":"0huNC3DukiIiu1eyfyYj","srcReqOrderItemId":null,"srcReqOrderItemBomId":null,"existingNum":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"deliveryInvOrgCode":"1302","deliveryInvOrgName":"上海喜日电子科技有限公司","deliveryWarehouseCode":null,"deliveryWarehouseName":null,"goodsSupplementPrice":null,"costPrice":null,"supplierPrice":null,"supplierCode":null,"supplierName":null,"logisticsId":null,"logisticsCode":null,"logisticsName":null,"deliveryNum":null,"stockInNum":null,"stockOutNum":null,"returnNum":null,"refundNum":null,"signNum":null,"replenishNum":null,"coordinateNum":null,"isClose":0,"closeReason":null,"isDeClose":0,"isOutClose":null,"offsetAmount":null,"settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","settleFinancialOrgCode":"1101","settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","remark":null}],"orderPromRels":[],"orderAttachments":[],"logisticsId":null,"logisticsCode":null,"logisticsName":null,"logisticsBillCode":null,"originalOrderCode":null,"totalReturnAmount":null,"returnReasonId":null,"returnReasonCode":null,"returnReasonName":null,"accountPeriodId":"a1ee592c-4412-42dc-8cee-94d2ac8aa355","accountPeriodCode":"001","accountPeriodName":"001","superiorCustomerId":null,"superiorCustomerCode":null,"superiorCustomerName":null,"totalGoodsSuppleAmount":0E-8,"orderCorrelationMoney":null,"flushSelected":null,"contractTypeId":null,"ext01Id":null,"ext01Code":null,"ext01Name":null,"ext02Id":null,"ext02Code":null,"ext02Name":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"goodsOutStyleId":null,"goodsOutStyleCode":null,"goodsOutStyleName":null,"isBomCalcPrice":null,"underPaymentModeId":null,"underPaymentModeCode":null,"underPaymentModeName":null}]}}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":"success","message":"&amp;#25552;&amp;#20132;&amp;#25104;&amp;#21151;","detailMsg":{"data":[{"id":"0IldEhBPVGFyIOPhf61P","dr":0,"ts":1589427631839,"creator":"smq","creationTime":1589427260000,"modifier":"smq","modifiedTime":1589427631839,"persistStatus":"upd","promptMessage":null,"state":3,"approver":"smq","approveTime":1589427631839,"approveOpinion":"自动审核","sycnNCStatus":null,"sycnOutStatus":null,"saleOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","saleOrgCode":"1101","saleOrgName":"上海证大喜马拉雅网络科技有限公司","supplierId":null,"supplierCode":null,"supplierName":null,"receiveCustomerId":"1878731f-0aca-4e9b-8b27-5944910f1509","receiveCustomerCode":"10002304","receiveCustomerName":"山东春和景明文化传播有限公司","contractId":null,"contractCode":null,"contractName":null,"settleFinancialOrgId":null,"settleFinancialOrgCode":null,"settleFinancialOrgName":null,"sameFinancialOrg":false,"orderTypeId":"0yDZwkYyas4KNNKM4RNF","orderTypeCode":"30-Cxx-02","orderTypeName":"先货后款","billTypeId":"SaleOrder","billTypeCode":"SaleOrder","billTypeName":"销售订单","costTypeId":null,"costTypeCode":null,"costTypeName":null,"saleModel":"01","orderCode":"SOO20200514000003","orderDate":1589424479000,"orderStatusId":"etyd74d4-a9f0-4104-9342-4a2cd8c4a600","orderStatusCode":"04","orderStatusName":"审批通过","customerId":"1878731f-0aca-4e9b-8b27-5944910f1509","customerCode":"10002304","customerName":"山东春和景明文化传播有限公司","marketAreaId":null,"marketAreaCode":null,"marketAreaName":null,"salesManagerId":"8e73d0b7-5d0e-4c9d-bcdb-1db337b0b971","salesManagerCode":"3527","salesManagerName":"诸佳艺","salesDeptId":"1d5f2aff-5455-4e40-8818-d0e2bbc7e37a","salesDeptCode":"01010101","salesDeptName":"区域招商","transportModeId":null,"transportModeCode":null,"transportModeName":null,"settleModeId":null,"settleModeCode":null,"settleModeName":null,"deliveryDate":1589424479000,"totalNum":10.00000000,"currencyId":"7cbc1420-737d-4206-97e3-140ebdbe841f","currencyCode":"CNY","currencyName":"人民币","currencyPriceScale":6,"currencyAmountScale":2,"totalDealAmount":27890.00000000,"totalAmount":27890.00000000,"promAmount":null,"offsetAmount":null,"totalWeight":0E-8,"totalNetWeight":0E-8,"totalVolume":0E-8,"orderSource":"02","isClose":0,"closer":null,"closeTime":null,"isDeClose":0,"deCloser":null,"deCloseTime":null,"closeReason":null,"remark":"接口自动化新增销售订单","rejecter":null,"rejectTime":null,"rejectReason":null,"srcOrderCode":null,"srcOrderId":null,"srcReqOrderCode":"REQ20200514000003","srcReqOrderId":"0vUj4vEMUe4Rq7dgfgT4","orderReceiveAddress":{"id":"0apTJDg4p4u7FVSVyV56","dr":0,"ts":1589427631839,"creator":"smq","creationTime":1589427260000,"modifier":"smq","modifiedTime":1589427631839,"persistStatus":"upd","promptMessage":null,"orderId":"0IldEhBPVGFyIOPhf61P","receiveAddressId":"8fe72429-8c25-4a92-b508-ded3abcc37d2","receiver":"周佳","receiverTel":"13518639999","receiverPhone":"13518639999","country":"中国","countryId":"COUNTRY-01","receiverProvince":"山东省","receiverProvinceId":"37","receiverCity":"淄博市","receiverCityId":"370300000000","receiverCounty":"张店区","receiverCountyId":"370303000000","receiverTown":"","receiverTownId":"","receiverAddress":"山东淄博张店联通路东方之珠","receiverZipcode":null},"orderInvoice":{"id":"07tdbKTLSLb2EfCIBqSV","dr":0,"ts":1589427631839,"creator":"smq","creationTime":1589427260000,"modifier":"smq","modifiedTime":1589427631839,"persistStatus":"upd","promptMessage":null,"orderId":"0IldEhBPVGFyIOPhf61P","invoiceId":"5df5c54a-bef3-4fab-9ff8-2d9dad5d9b5f","invoiceType":"增值税发票","invoiceContent":null,"invoiceTitle":"山东春和景明文化传播有限公司","invoiceTaxId":null,"invoiceBank":"中国农业银行股份有限公司淄博东方分理处","invoiceAccount":null,"invoiceSubBank":null},"orderReceiveAddressStr":null,"orderInvoiceStr":null,"orderItems":[{"id":"03DOuhbumrZiuXG6esEs","dr":0,"ts":1589427260000,"creator":"smq","creationTime":1589427260000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"0IldEhBPVGFyIOPhf61P","orderCode":"SOO20200514000003","orderBillType":"SaleOrder","customerId":"1878731f-0aca-4e9b-8b27-5944910f1509","customerName":null,"rowNum":"10","productId":"996cc839-60e8-4500-82c6-9a7c7b95646d","goodsCategoryId":null,"goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsDisplayName":"小雅AI音箱旗舰版_石墨绿","goodsImg":"/group1/M00/00/00/rBFAIV0wmbyASJn2AAE4-1jmRp4811.jpg","productLineId":"13c512df-ad18-48e5-b75d-166a534cc410","rowWeight":0E-8,"weight":null,"rowNetWeight":0E-8,"netWeight":null,"weightUnitId":null,"weightUnitCode":null,"weightUnitName":null,"rowVolume":0E-8,"volume":null,"volumeUnitId":null,"volumeUnitCode":null,"volumeUnitName":null,"orderNum":10.00000000,"orderNumUnitId":"UNIT-12","orderNumUnitCode":"EA","orderNumUnitName":"个","mainNum":10.00000000,"mainNumUnitId":"UNIT-12","mainNumUnitCode":"EA","mainNumUnitName":"个","conversionRate":1.00000000,"basePrice":2789.00000000,"supplierPrice":null,"salePrice":2789.00000000,"promPrice":2789.00000000,"dealPrice":2789.00000000,"amount":27890.00000000,"promAmount":null,"offsetAmount":null,"dealAmount":27890.00000000,"currencyId":"7cbc1420-737d-4206-97e3-140ebdbe841f","currencyCode":"CNY","currencyName":"人民币","currencySign":"￥","currencyAmountScale":2,"currencyPriceScale":6,"isGift":0,"logisticsId":null,"logisticsCode":null,"logisticsName":null,"promotinId":null,"promotinCode":null,"promotinName":null,"planDeliveryDate":1589424531000,"deliveryInvOrgId":"ebcd635d-237e-4a15-819c-3983ac49436f","deliveryInvOrgCode":"1302","deliveryInvOrgName":"上海喜日电子科技有限公司","deliveryWarehouseId":null,"deliveryWarehouseCode":null,"deliveryWarehouseName":null,"isClose":0,"isDeClose":0,"remark":null,"deliveryNum":0E-8,"stockInNum":0E-8,"stockOutNum":0E-8,"returnNum":0E-8,"refundNum":0E-8,"signNum":0E-8,"replenishNum":0E-8,"coordinateNum":0E-8,"srcOrderCode":null,"srcOrderId":null,"srcOrderItemId":null,"srcOrderTrantypeId":null,"srcOrderBilltypeId":null,"srcReqOrderCode":"REQ20200514000003","srcReqOrderId":"0vUj4vEMUe4Rq7dgfgT4","srcReqOrderItemId":null,"totalReturnAmount":null,"returnReasonId":null,"returnReasonCode":null,"returnReasonName":null,"returnTypeId":null,"returnTypeCode":null,"returnTypeName":null,"orderPromRels":[],"orderAttachments":[],"version":1,"originalGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","settleFinancialOrgCode":"1101","settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","projectId":null,"projectCode":null,"projectName":null,"baseGoodsOptId":null,"baseGoodsOptValue":null,"supplierId":null,"supplierCode":null,"supplierName":null,"batchCodeId":null,"batchCodeCode":null,"batchCodeName":null,"goodsSupplement":0,"srcContractId":null,"srcContractCode":null,"srcContractType":null,"srcQuoteId":null,"goodsSupplementPrice":null,"offsetDetailsDtoList":[],"existingNum":null,"availableNum":null,"closeReason":null,"orderCorrelationMoney":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"bomSplit":null}],"orderItemBoms":[{"id":"0wjIWefPsw9MShM1JcZd","dr":0,"ts":1589427260000,"creator":"smq","creationTime":1589427260000,"modifier":null,"modifiedTime":null,"persistStatus":"nrm","promptMessage":null,"orderId":"0IldEhBPVGFyIOPhf61P","orderItemId":"03DOuhbumrZiuXG6esEs","parentRowNum":"10","parentGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","parentGoodsCode":"301020000049","parentGoodsName":"小雅AI音箱旗舰版_石墨绿","rowNum":"10","goodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","goodsCode":"301020000049","goodsName":"小雅AI音箱旗舰版_石墨绿","goodsImg":"/group1/M00/00/00/rBFAIV0wmbyASJn2AAE4-1jmRp4811.jpg","isGift":0,"productLineId":"13c512df-ad18-48e5-b75d-166a534cc410","rowWeight":0E-8,"weight":null,"rowNetWeight":0E-8,"netWeight":null,"weightUnitId":null,"weightUnitCode":null,"weightUnitName":null,"rowVolume":0E-8,"volume":null,"volumeUnitId":null,"volumeUnitCode":null,"volumeUnitName":null,"orderNum":10.00000000,"orderNumUnitId":"UNIT-12","orderNumUnitCode":"EA","orderNumUnitName":"个","mainNum":10.00000000,"mainNumUnitId":"UNIT-12","mainNumUnitCode":"EA","mainNumUnitName":"个","conversionRate":1.00000000,"basePrice":null,"salePrice":2789.00000000,"amount":27890.00000000,"dealPrice":2789.00000000,"dealAmount":27890.00000000,"currency":null,"planDeliveryDate":1589424531000,"deliveryInvOrgId":"ebcd635d-237e-4a15-819c-3983ac49436f","deliveryWarehouseId":null,"baseGoodsOptId":null,"baseGoodsOptVals":null,"baseGoodsOptValue":null,"version":1,"originalGoodsId":"03e77ae0-469d-4d8a-ba34-733c2ada3749","childGoodsQty":1.00000000,"projectId":null,"supplierId":null,"srcOrderCode":null,"srcOrderId":null,"srcOrderItemId":null,"srcOrderItemBomId":null,"srcReqOrderCode":"REQ20200514000003","goodsSupplement":0,"srcReqOrderId":"0vUj4vEMUe4Rq7dgfgT4","srcReqOrderItemId":null,"srcReqOrderItemBomId":null,"existingNum":null,"ext01":null,"ext02":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"deliveryInvOrgCode":"1302","deliveryInvOrgName":"上海喜日电子科技有限公司","deliveryWarehouseCode":null,"deliveryWarehouseName":null,"goodsSupplementPrice":null,"costPrice":null,"supplierPrice":null,"supplierCode":null,"supplierName":null,"logisticsId":null,"logisticsCode":null,"logisticsName":null,"deliveryNum":null,"stockInNum":null,"stockOutNum":null,"returnNum":null,"refundNum":null,"signNum":null,"replenishNum":null,"coordinateNum":null,"isClose":0,"closeReason":null,"isDeClose":0,"isOutClose":null,"offsetAmount":null,"settleFinancialOrgId":"e53fc87e-1a16-4a2b-978c-63bfd14fd88b","settleFinancialOrgCode":"1101","settleFinancialOrgName":"上海证大喜马拉雅网络科技有限公司","remark":null}],"orderPromRels":[],"orderAttachments":[],"logisticsId":null,"logisticsCode":null,"logisticsName":null,"logisticsBillCode":null,"originalOrderCode":null,"totalReturnAmount":null,"returnReasonId":null,"returnReasonCode":null,"returnReasonName":null,"accountPeriodId":"a1ee592c-4412-42dc-8cee-94d2ac8aa355","accountPeriodCode":"001","accountPeriodName":"001","superiorCustomerId":null,"superiorCustomerCode":null,"superiorCustomerName":null,"totalGoodsSuppleAmount":0E-8,"orderCorrelationMoney":null,"flushSelected":null,"contractTypeId":null,"ext01Id":null,"ext01Code":null,"ext01Name":null,"ext02Id":null,"ext02Code":null,"ext02Name":null,"ext03":null,"ext04":null,"ext05":null,"ext06":null,"ext07":null,"ext08":null,"ext09":null,"ext10":null,"ext11":null,"ext12":null,"ext13":null,"ext14":null,"ext15":null,"goodsOutStyleId":null,"goodsOutStyleCode":null,"goodsOutStyleName":null,"isBomCalcPrice":null,"underPaymentModeId":null,"underPaymentModeCode":null,"underPaymentModeName":null}]}}</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -1498,11 +1493,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IX227"/>
+  <dimension ref="A1:IW227"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="50" customHeight="1"/>
@@ -1516,12 +1511,12 @@
     <col min="8" max="9" width="32.1640625" style="20" customWidth="1"/>
     <col min="10" max="10" width="32.1640625" style="32" customWidth="1"/>
     <col min="11" max="13" width="32.1640625" style="16" customWidth="1"/>
-    <col min="14" max="15" width="32.1640625" style="20" customWidth="1"/>
-    <col min="16" max="16381" width="9.1640625" style="15"/>
-    <col min="16382" max="16384" width="9.1640625" style="15" customWidth="1"/>
+    <col min="14" max="14" width="32.1640625" style="20" customWidth="1"/>
+    <col min="15" max="16380" width="9.1640625" style="15"/>
+    <col min="16381" max="16384" width="9.1640625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:258" ht="90.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:257" ht="90.75" customHeight="1" thickBot="1">
       <c r="A1" s="30"/>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
@@ -1536,7 +1531,7 @@
       <c r="L1" s="40"/>
       <c r="M1" s="40"/>
       <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
+      <c r="O1" s="13"/>
       <c r="P1" s="13"/>
       <c r="Q1" s="13"/>
       <c r="R1" s="13"/>
@@ -1588,9 +1583,8 @@
       <c r="BL1" s="13"/>
       <c r="BM1" s="13"/>
       <c r="BN1" s="13"/>
-      <c r="BO1" s="13"/>
-    </row>
-    <row r="2" spans="1:258" s="11" customFormat="1" ht="17" thickBot="1">
+    </row>
+    <row r="2" spans="1:257" s="11" customFormat="1" ht="17" thickBot="1">
       <c r="A2" s="21" t="s">
         <v>13</v>
       </c>
@@ -1601,41 +1595,39 @@
         <v>14</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="34" t="s">
         <v>24</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="34" t="s">
-        <v>26</v>
       </c>
       <c r="L2" s="34" t="s">
         <v>15</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N2" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="36" t="s">
-        <v>30</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="O2" s="18"/>
       <c r="P2" s="18"/>
       <c r="Q2" s="18"/>
       <c r="R2" s="18"/>
@@ -1696,50 +1688,47 @@
       <c r="BU2" s="18"/>
       <c r="BV2" s="18"/>
       <c r="BW2" s="18"/>
-      <c r="BX2" s="18"/>
-    </row>
-    <row r="3" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
+    </row>
+    <row r="3" spans="1:257" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A3" s="24">
         <v>1</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D3" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="29" t="s">
-        <v>23</v>
-      </c>
       <c r="F3" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J3" s="37">
         <v>200</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L3" s="38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M3" s="38"/>
       <c r="N3" s="39"/>
-      <c r="O3" s="39" t="s">
-        <v>16</v>
-      </c>
+      <c r="O3" s="13"/>
       <c r="P3" s="13"/>
       <c r="Q3" s="13"/>
       <c r="R3" s="13"/>
@@ -1791,7 +1780,7 @@
       <c r="BL3" s="13"/>
       <c r="BM3" s="13"/>
       <c r="BN3" s="13"/>
-      <c r="BO3" s="13"/>
+      <c r="BO3" s="15"/>
       <c r="BP3" s="15"/>
       <c r="BQ3" s="15"/>
       <c r="BR3" s="15"/>
@@ -1982,50 +1971,49 @@
       <c r="IU3" s="15"/>
       <c r="IV3" s="15"/>
       <c r="IW3" s="15"/>
-      <c r="IX3" s="15"/>
-    </row>
-    <row r="4" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
+    </row>
+    <row r="4" spans="1:257" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A4" s="24">
         <v>2</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="29" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J4" s="37">
         <v>200</v>
       </c>
       <c r="K4" s="38" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L4" s="38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M4" s="38" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N4" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="O4" s="39"/>
+        <v>48</v>
+      </c>
+      <c r="O4" s="13"/>
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
@@ -2077,7 +2065,7 @@
       <c r="BL4" s="13"/>
       <c r="BM4" s="13"/>
       <c r="BN4" s="13"/>
-      <c r="BO4" s="13"/>
+      <c r="BO4" s="15"/>
       <c r="BP4" s="15"/>
       <c r="BQ4" s="15"/>
       <c r="BR4" s="15"/>
@@ -2268,52 +2256,51 @@
       <c r="IU4" s="15"/>
       <c r="IV4" s="15"/>
       <c r="IW4" s="15"/>
-      <c r="IX4" s="15"/>
-    </row>
-    <row r="5" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
+    </row>
+    <row r="5" spans="1:257" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A5" s="24">
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J5" s="37">
         <v>200</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="L5" s="38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="O5" s="39"/>
+      <c r="O5" s="13"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
@@ -2365,7 +2352,7 @@
       <c r="BL5" s="13"/>
       <c r="BM5" s="13"/>
       <c r="BN5" s="13"/>
-      <c r="BO5" s="13"/>
+      <c r="BO5" s="15"/>
       <c r="BP5" s="15"/>
       <c r="BQ5" s="15"/>
       <c r="BR5" s="15"/>
@@ -2556,52 +2543,51 @@
       <c r="IU5" s="15"/>
       <c r="IV5" s="15"/>
       <c r="IW5" s="15"/>
-      <c r="IX5" s="15"/>
-    </row>
-    <row r="6" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
+    </row>
+    <row r="6" spans="1:257" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A6" s="24">
         <v>4</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J6" s="37">
         <v>200</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L6" s="38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M6" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6" s="39"/>
+      <c r="O6" s="13"/>
       <c r="P6" s="13"/>
       <c r="Q6" s="13"/>
       <c r="R6" s="13"/>
@@ -2653,7 +2639,7 @@
       <c r="BL6" s="13"/>
       <c r="BM6" s="13"/>
       <c r="BN6" s="13"/>
-      <c r="BO6" s="13"/>
+      <c r="BO6" s="15"/>
       <c r="BP6" s="15"/>
       <c r="BQ6" s="15"/>
       <c r="BR6" s="15"/>
@@ -2844,50 +2830,49 @@
       <c r="IU6" s="15"/>
       <c r="IV6" s="15"/>
       <c r="IW6" s="15"/>
-      <c r="IX6" s="15"/>
-    </row>
-    <row r="7" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
+    </row>
+    <row r="7" spans="1:257" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A7" s="24">
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J7" s="37">
         <v>200</v>
       </c>
       <c r="K7" s="38"/>
       <c r="L7" s="38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M7" s="38" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N7" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" s="39"/>
+        <v>34</v>
+      </c>
+      <c r="O7" s="13"/>
       <c r="P7" s="13"/>
       <c r="Q7" s="13"/>
       <c r="R7" s="13"/>
@@ -2939,7 +2924,7 @@
       <c r="BL7" s="13"/>
       <c r="BM7" s="13"/>
       <c r="BN7" s="13"/>
-      <c r="BO7" s="13"/>
+      <c r="BO7" s="15"/>
       <c r="BP7" s="15"/>
       <c r="BQ7" s="15"/>
       <c r="BR7" s="15"/>
@@ -3130,9 +3115,8 @@
       <c r="IU7" s="15"/>
       <c r="IV7" s="15"/>
       <c r="IW7" s="15"/>
-      <c r="IX7" s="15"/>
-    </row>
-    <row r="8" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="8" spans="1:257" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A8" s="22"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
@@ -3143,9 +3127,8 @@
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
       <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-    </row>
-    <row r="9" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="9" spans="1:257" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A9" s="22"/>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
@@ -3156,9 +3139,8 @@
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
       <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-    </row>
-    <row r="10" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="10" spans="1:257" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A10" s="22"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
@@ -3169,9 +3151,8 @@
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
       <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-    </row>
-    <row r="11" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="11" spans="1:257" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A11" s="22"/>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
@@ -3182,9 +3163,8 @@
       <c r="L11" s="22"/>
       <c r="M11" s="22"/>
       <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-    </row>
-    <row r="12" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="12" spans="1:257" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A12" s="22"/>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
@@ -3195,9 +3175,8 @@
       <c r="L12" s="22"/>
       <c r="M12" s="22"/>
       <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-    </row>
-    <row r="13" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="13" spans="1:257" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A13" s="22"/>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
@@ -3208,9 +3187,8 @@
       <c r="L13" s="22"/>
       <c r="M13" s="22"/>
       <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-    </row>
-    <row r="14" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="14" spans="1:257" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A14" s="22"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
@@ -3221,9 +3199,8 @@
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
       <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-    </row>
-    <row r="15" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="15" spans="1:257" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A15" s="22"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
@@ -3234,9 +3211,8 @@
       <c r="L15" s="22"/>
       <c r="M15" s="22"/>
       <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-    </row>
-    <row r="16" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="16" spans="1:257" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A16" s="22"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
@@ -3247,9 +3223,8 @@
       <c r="L16" s="22"/>
       <c r="M16" s="22"/>
       <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-    </row>
-    <row r="17" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="17" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A17" s="22"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
@@ -3260,9 +3235,8 @@
       <c r="L17" s="22"/>
       <c r="M17" s="22"/>
       <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-    </row>
-    <row r="18" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="18" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
@@ -3273,9 +3247,8 @@
       <c r="L18" s="22"/>
       <c r="M18" s="22"/>
       <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-    </row>
-    <row r="19" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="19" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A19" s="22"/>
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
@@ -3286,9 +3259,8 @@
       <c r="L19" s="22"/>
       <c r="M19" s="22"/>
       <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-    </row>
-    <row r="20" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="20" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
@@ -3299,9 +3271,8 @@
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
       <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-    </row>
-    <row r="21" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="21" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A21" s="22"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
@@ -3312,9 +3283,8 @@
       <c r="L21" s="22"/>
       <c r="M21" s="22"/>
       <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-    </row>
-    <row r="22" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="22" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A22" s="22"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
@@ -3325,9 +3295,8 @@
       <c r="L22" s="22"/>
       <c r="M22" s="22"/>
       <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-    </row>
-    <row r="23" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="23" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A23" s="22"/>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
@@ -3338,9 +3307,8 @@
       <c r="L23" s="22"/>
       <c r="M23" s="22"/>
       <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-    </row>
-    <row r="24" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="24" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
@@ -3351,9 +3319,8 @@
       <c r="L24" s="22"/>
       <c r="M24" s="22"/>
       <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-    </row>
-    <row r="25" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="25" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A25" s="22"/>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
@@ -3364,9 +3331,8 @@
       <c r="L25" s="22"/>
       <c r="M25" s="22"/>
       <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-    </row>
-    <row r="26" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="26" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
@@ -3377,9 +3343,8 @@
       <c r="L26" s="22"/>
       <c r="M26" s="22"/>
       <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-    </row>
-    <row r="27" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="27" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A27" s="22"/>
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>
@@ -3390,9 +3355,8 @@
       <c r="L27" s="22"/>
       <c r="M27" s="22"/>
       <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-    </row>
-    <row r="28" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="28" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A28" s="22"/>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
@@ -3403,9 +3367,8 @@
       <c r="L28" s="22"/>
       <c r="M28" s="22"/>
       <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-    </row>
-    <row r="29" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="29" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A29" s="22"/>
       <c r="E29" s="22"/>
       <c r="F29" s="22"/>
@@ -3416,9 +3379,8 @@
       <c r="L29" s="22"/>
       <c r="M29" s="22"/>
       <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-    </row>
-    <row r="30" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="30" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A30" s="22"/>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
@@ -3429,9 +3391,8 @@
       <c r="L30" s="22"/>
       <c r="M30" s="22"/>
       <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-    </row>
-    <row r="31" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="31" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A31" s="22"/>
       <c r="E31" s="22"/>
       <c r="F31" s="22"/>
@@ -3442,9 +3403,8 @@
       <c r="L31" s="22"/>
       <c r="M31" s="22"/>
       <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-    </row>
-    <row r="32" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="32" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A32" s="22"/>
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
@@ -3455,9 +3415,8 @@
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-    </row>
-    <row r="33" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="33" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A33" s="22"/>
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
@@ -3468,9 +3427,8 @@
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-    </row>
-    <row r="34" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="34" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A34" s="22"/>
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
@@ -3481,9 +3439,8 @@
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-    </row>
-    <row r="35" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="35" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A35" s="22"/>
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
@@ -3494,9 +3451,8 @@
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-    </row>
-    <row r="36" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="36" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A36" s="22"/>
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
@@ -3507,9 +3463,8 @@
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-    </row>
-    <row r="37" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="37" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A37" s="22"/>
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
@@ -3520,9 +3475,8 @@
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
-    </row>
-    <row r="38" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="38" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A38" s="22"/>
       <c r="E38" s="22"/>
       <c r="F38" s="22"/>
@@ -3533,9 +3487,8 @@
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
-    </row>
-    <row r="39" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="39" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A39" s="22"/>
       <c r="E39" s="22"/>
       <c r="F39" s="22"/>
@@ -3546,9 +3499,8 @@
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-    </row>
-    <row r="40" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="40" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A40" s="22"/>
       <c r="E40" s="22"/>
       <c r="F40" s="22"/>
@@ -3559,9 +3511,8 @@
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
-    </row>
-    <row r="41" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="41" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A41" s="22"/>
       <c r="E41" s="22"/>
       <c r="F41" s="22"/>
@@ -3572,9 +3523,8 @@
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="23"/>
-      <c r="O41" s="23"/>
-    </row>
-    <row r="42" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="42" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A42" s="22"/>
       <c r="E42" s="22"/>
       <c r="F42" s="22"/>
@@ -3585,9 +3535,8 @@
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="23"/>
-      <c r="O42" s="23"/>
-    </row>
-    <row r="43" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="43" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A43" s="22"/>
       <c r="E43" s="22"/>
       <c r="F43" s="22"/>
@@ -3598,9 +3547,8 @@
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
       <c r="N43" s="23"/>
-      <c r="O43" s="23"/>
-    </row>
-    <row r="44" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="44" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A44" s="22"/>
       <c r="E44" s="22"/>
       <c r="F44" s="22"/>
@@ -3611,9 +3559,8 @@
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="23"/>
-      <c r="O44" s="23"/>
-    </row>
-    <row r="45" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="45" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A45" s="22"/>
       <c r="E45" s="22"/>
       <c r="F45" s="22"/>
@@ -3624,9 +3571,8 @@
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="23"/>
-      <c r="O45" s="23"/>
-    </row>
-    <row r="46" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="46" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A46" s="22"/>
       <c r="E46" s="22"/>
       <c r="F46" s="22"/>
@@ -3637,9 +3583,8 @@
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
       <c r="N46" s="23"/>
-      <c r="O46" s="23"/>
-    </row>
-    <row r="47" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="47" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A47" s="22"/>
       <c r="E47" s="22"/>
       <c r="F47" s="22"/>
@@ -3650,9 +3595,8 @@
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47" s="23"/>
-      <c r="O47" s="23"/>
-    </row>
-    <row r="48" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="48" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A48" s="22"/>
       <c r="E48" s="22"/>
       <c r="F48" s="22"/>
@@ -3663,9 +3607,8 @@
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
       <c r="N48" s="23"/>
-      <c r="O48" s="23"/>
-    </row>
-    <row r="49" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="49" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A49" s="22"/>
       <c r="E49" s="22"/>
       <c r="F49" s="22"/>
@@ -3676,9 +3619,8 @@
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
       <c r="N49" s="23"/>
-      <c r="O49" s="23"/>
-    </row>
-    <row r="50" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="50" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A50" s="22"/>
       <c r="E50" s="22"/>
       <c r="F50" s="22"/>
@@ -3689,9 +3631,8 @@
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="23"/>
-      <c r="O50" s="23"/>
-    </row>
-    <row r="51" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="51" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A51" s="22"/>
       <c r="E51" s="22"/>
       <c r="F51" s="22"/>
@@ -3702,9 +3643,8 @@
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="23"/>
-      <c r="O51" s="23"/>
-    </row>
-    <row r="52" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="52" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A52" s="22"/>
       <c r="E52" s="22"/>
       <c r="F52" s="22"/>
@@ -3715,9 +3655,8 @@
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
       <c r="N52" s="23"/>
-      <c r="O52" s="23"/>
-    </row>
-    <row r="53" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="53" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A53" s="22"/>
       <c r="E53" s="22"/>
       <c r="F53" s="22"/>
@@ -3728,9 +3667,8 @@
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
       <c r="N53" s="23"/>
-      <c r="O53" s="23"/>
-    </row>
-    <row r="54" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="54" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A54" s="22"/>
       <c r="E54" s="22"/>
       <c r="F54" s="22"/>
@@ -3741,9 +3679,8 @@
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="23"/>
-      <c r="O54" s="23"/>
-    </row>
-    <row r="55" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="55" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A55" s="22"/>
       <c r="E55" s="22"/>
       <c r="F55" s="22"/>
@@ -3754,9 +3691,8 @@
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="23"/>
-      <c r="O55" s="23"/>
-    </row>
-    <row r="56" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="56" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A56" s="22"/>
       <c r="E56" s="22"/>
       <c r="F56" s="22"/>
@@ -3767,9 +3703,8 @@
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
       <c r="N56" s="23"/>
-      <c r="O56" s="23"/>
-    </row>
-    <row r="57" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="57" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A57" s="22"/>
       <c r="E57" s="22"/>
       <c r="F57" s="22"/>
@@ -3780,9 +3715,8 @@
       <c r="L57" s="22"/>
       <c r="M57" s="22"/>
       <c r="N57" s="23"/>
-      <c r="O57" s="23"/>
-    </row>
-    <row r="58" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="58" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A58" s="22"/>
       <c r="E58" s="22"/>
       <c r="F58" s="22"/>
@@ -3793,9 +3727,8 @@
       <c r="L58" s="22"/>
       <c r="M58" s="22"/>
       <c r="N58" s="23"/>
-      <c r="O58" s="23"/>
-    </row>
-    <row r="59" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="59" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A59" s="22"/>
       <c r="E59" s="22"/>
       <c r="F59" s="22"/>
@@ -3806,9 +3739,8 @@
       <c r="L59" s="22"/>
       <c r="M59" s="22"/>
       <c r="N59" s="23"/>
-      <c r="O59" s="23"/>
-    </row>
-    <row r="60" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="60" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A60" s="22"/>
       <c r="E60" s="22"/>
       <c r="F60" s="22"/>
@@ -3819,9 +3751,8 @@
       <c r="L60" s="22"/>
       <c r="M60" s="22"/>
       <c r="N60" s="23"/>
-      <c r="O60" s="23"/>
-    </row>
-    <row r="61" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="61" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A61" s="22"/>
       <c r="E61" s="22"/>
       <c r="F61" s="22"/>
@@ -3832,9 +3763,8 @@
       <c r="L61" s="22"/>
       <c r="M61" s="22"/>
       <c r="N61" s="23"/>
-      <c r="O61" s="23"/>
-    </row>
-    <row r="62" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="62" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A62" s="22"/>
       <c r="E62" s="22"/>
       <c r="F62" s="22"/>
@@ -3845,9 +3775,8 @@
       <c r="L62" s="22"/>
       <c r="M62" s="22"/>
       <c r="N62" s="23"/>
-      <c r="O62" s="23"/>
-    </row>
-    <row r="63" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="63" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A63" s="22"/>
       <c r="E63" s="22"/>
       <c r="F63" s="22"/>
@@ -3858,9 +3787,8 @@
       <c r="L63" s="22"/>
       <c r="M63" s="22"/>
       <c r="N63" s="23"/>
-      <c r="O63" s="23"/>
-    </row>
-    <row r="64" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="64" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A64" s="22"/>
       <c r="E64" s="22"/>
       <c r="F64" s="22"/>
@@ -3871,9 +3799,8 @@
       <c r="L64" s="22"/>
       <c r="M64" s="22"/>
       <c r="N64" s="23"/>
-      <c r="O64" s="23"/>
-    </row>
-    <row r="65" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="65" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A65" s="22"/>
       <c r="E65" s="22"/>
       <c r="F65" s="22"/>
@@ -3884,9 +3811,8 @@
       <c r="L65" s="22"/>
       <c r="M65" s="22"/>
       <c r="N65" s="23"/>
-      <c r="O65" s="23"/>
-    </row>
-    <row r="66" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="66" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A66" s="22"/>
       <c r="E66" s="22"/>
       <c r="F66" s="22"/>
@@ -3897,9 +3823,8 @@
       <c r="L66" s="22"/>
       <c r="M66" s="22"/>
       <c r="N66" s="23"/>
-      <c r="O66" s="23"/>
-    </row>
-    <row r="67" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="67" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A67" s="22"/>
       <c r="E67" s="22"/>
       <c r="F67" s="22"/>
@@ -3910,9 +3835,8 @@
       <c r="L67" s="22"/>
       <c r="M67" s="22"/>
       <c r="N67" s="23"/>
-      <c r="O67" s="23"/>
-    </row>
-    <row r="68" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="68" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A68" s="22"/>
       <c r="E68" s="22"/>
       <c r="F68" s="22"/>
@@ -3923,9 +3847,8 @@
       <c r="L68" s="22"/>
       <c r="M68" s="22"/>
       <c r="N68" s="23"/>
-      <c r="O68" s="23"/>
-    </row>
-    <row r="69" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="69" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A69" s="22"/>
       <c r="E69" s="22"/>
       <c r="F69" s="22"/>
@@ -3936,9 +3859,8 @@
       <c r="L69" s="22"/>
       <c r="M69" s="22"/>
       <c r="N69" s="23"/>
-      <c r="O69" s="23"/>
-    </row>
-    <row r="70" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="70" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A70" s="22"/>
       <c r="E70" s="22"/>
       <c r="F70" s="22"/>
@@ -3949,9 +3871,8 @@
       <c r="L70" s="22"/>
       <c r="M70" s="22"/>
       <c r="N70" s="23"/>
-      <c r="O70" s="23"/>
-    </row>
-    <row r="71" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="71" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A71" s="22"/>
       <c r="E71" s="22"/>
       <c r="F71" s="22"/>
@@ -3962,9 +3883,8 @@
       <c r="L71" s="22"/>
       <c r="M71" s="22"/>
       <c r="N71" s="23"/>
-      <c r="O71" s="23"/>
-    </row>
-    <row r="72" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="72" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A72" s="22"/>
       <c r="E72" s="22"/>
       <c r="F72" s="22"/>
@@ -3975,9 +3895,8 @@
       <c r="L72" s="22"/>
       <c r="M72" s="22"/>
       <c r="N72" s="23"/>
-      <c r="O72" s="23"/>
-    </row>
-    <row r="73" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="73" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A73" s="22"/>
       <c r="E73" s="22"/>
       <c r="F73" s="22"/>
@@ -3988,9 +3907,8 @@
       <c r="L73" s="22"/>
       <c r="M73" s="22"/>
       <c r="N73" s="23"/>
-      <c r="O73" s="23"/>
-    </row>
-    <row r="74" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="74" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A74" s="22"/>
       <c r="E74" s="22"/>
       <c r="F74" s="22"/>
@@ -4001,9 +3919,8 @@
       <c r="L74" s="22"/>
       <c r="M74" s="22"/>
       <c r="N74" s="23"/>
-      <c r="O74" s="23"/>
-    </row>
-    <row r="75" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="75" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A75" s="22"/>
       <c r="E75" s="22"/>
       <c r="F75" s="22"/>
@@ -4014,9 +3931,8 @@
       <c r="L75" s="22"/>
       <c r="M75" s="22"/>
       <c r="N75" s="23"/>
-      <c r="O75" s="23"/>
-    </row>
-    <row r="76" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="76" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A76" s="22"/>
       <c r="E76" s="22"/>
       <c r="F76" s="22"/>
@@ -4027,9 +3943,8 @@
       <c r="L76" s="22"/>
       <c r="M76" s="22"/>
       <c r="N76" s="23"/>
-      <c r="O76" s="23"/>
-    </row>
-    <row r="77" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="77" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A77" s="22"/>
       <c r="E77" s="22"/>
       <c r="F77" s="22"/>
@@ -4040,9 +3955,8 @@
       <c r="L77" s="22"/>
       <c r="M77" s="22"/>
       <c r="N77" s="23"/>
-      <c r="O77" s="23"/>
-    </row>
-    <row r="78" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="78" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A78" s="22"/>
       <c r="E78" s="22"/>
       <c r="F78" s="22"/>
@@ -4053,9 +3967,8 @@
       <c r="L78" s="22"/>
       <c r="M78" s="22"/>
       <c r="N78" s="23"/>
-      <c r="O78" s="23"/>
-    </row>
-    <row r="79" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="79" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A79" s="22"/>
       <c r="E79" s="22"/>
       <c r="F79" s="22"/>
@@ -4066,9 +3979,8 @@
       <c r="L79" s="22"/>
       <c r="M79" s="22"/>
       <c r="N79" s="23"/>
-      <c r="O79" s="23"/>
-    </row>
-    <row r="80" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="80" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A80" s="22"/>
       <c r="E80" s="22"/>
       <c r="F80" s="22"/>
@@ -4079,9 +3991,8 @@
       <c r="L80" s="22"/>
       <c r="M80" s="22"/>
       <c r="N80" s="23"/>
-      <c r="O80" s="23"/>
-    </row>
-    <row r="81" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="81" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A81" s="22"/>
       <c r="E81" s="22"/>
       <c r="F81" s="22"/>
@@ -4092,9 +4003,8 @@
       <c r="L81" s="22"/>
       <c r="M81" s="22"/>
       <c r="N81" s="23"/>
-      <c r="O81" s="23"/>
-    </row>
-    <row r="82" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="82" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A82" s="22"/>
       <c r="E82" s="22"/>
       <c r="F82" s="22"/>
@@ -4105,9 +4015,8 @@
       <c r="L82" s="22"/>
       <c r="M82" s="22"/>
       <c r="N82" s="23"/>
-      <c r="O82" s="23"/>
-    </row>
-    <row r="83" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="83" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A83" s="22"/>
       <c r="E83" s="22"/>
       <c r="F83" s="22"/>
@@ -4118,9 +4027,8 @@
       <c r="L83" s="22"/>
       <c r="M83" s="22"/>
       <c r="N83" s="23"/>
-      <c r="O83" s="23"/>
-    </row>
-    <row r="84" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="84" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A84" s="22"/>
       <c r="E84" s="22"/>
       <c r="F84" s="22"/>
@@ -4131,9 +4039,8 @@
       <c r="L84" s="22"/>
       <c r="M84" s="22"/>
       <c r="N84" s="23"/>
-      <c r="O84" s="23"/>
-    </row>
-    <row r="85" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="85" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A85" s="22"/>
       <c r="E85" s="22"/>
       <c r="F85" s="22"/>
@@ -4144,9 +4051,8 @@
       <c r="L85" s="22"/>
       <c r="M85" s="22"/>
       <c r="N85" s="23"/>
-      <c r="O85" s="23"/>
-    </row>
-    <row r="86" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="86" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A86" s="22"/>
       <c r="E86" s="22"/>
       <c r="F86" s="22"/>
@@ -4157,9 +4063,8 @@
       <c r="L86" s="22"/>
       <c r="M86" s="22"/>
       <c r="N86" s="23"/>
-      <c r="O86" s="23"/>
-    </row>
-    <row r="87" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="87" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A87" s="22"/>
       <c r="E87" s="22"/>
       <c r="F87" s="22"/>
@@ -4170,9 +4075,8 @@
       <c r="L87" s="22"/>
       <c r="M87" s="22"/>
       <c r="N87" s="23"/>
-      <c r="O87" s="23"/>
-    </row>
-    <row r="88" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="88" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A88" s="22"/>
       <c r="E88" s="22"/>
       <c r="F88" s="22"/>
@@ -4183,9 +4087,8 @@
       <c r="L88" s="22"/>
       <c r="M88" s="22"/>
       <c r="N88" s="23"/>
-      <c r="O88" s="23"/>
-    </row>
-    <row r="89" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="89" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A89" s="22"/>
       <c r="E89" s="22"/>
       <c r="F89" s="22"/>
@@ -4196,9 +4099,8 @@
       <c r="L89" s="22"/>
       <c r="M89" s="22"/>
       <c r="N89" s="23"/>
-      <c r="O89" s="23"/>
-    </row>
-    <row r="90" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="90" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A90" s="22"/>
       <c r="E90" s="22"/>
       <c r="F90" s="22"/>
@@ -4209,9 +4111,8 @@
       <c r="L90" s="22"/>
       <c r="M90" s="22"/>
       <c r="N90" s="23"/>
-      <c r="O90" s="23"/>
-    </row>
-    <row r="91" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="91" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A91" s="22"/>
       <c r="E91" s="22"/>
       <c r="F91" s="22"/>
@@ -4222,9 +4123,8 @@
       <c r="L91" s="22"/>
       <c r="M91" s="22"/>
       <c r="N91" s="23"/>
-      <c r="O91" s="23"/>
-    </row>
-    <row r="92" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="92" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A92" s="22"/>
       <c r="E92" s="22"/>
       <c r="F92" s="22"/>
@@ -4235,9 +4135,8 @@
       <c r="L92" s="22"/>
       <c r="M92" s="22"/>
       <c r="N92" s="23"/>
-      <c r="O92" s="23"/>
-    </row>
-    <row r="93" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="93" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A93" s="22"/>
       <c r="E93" s="22"/>
       <c r="F93" s="22"/>
@@ -4248,9 +4147,8 @@
       <c r="L93" s="22"/>
       <c r="M93" s="22"/>
       <c r="N93" s="23"/>
-      <c r="O93" s="23"/>
-    </row>
-    <row r="94" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="94" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A94" s="22"/>
       <c r="E94" s="22"/>
       <c r="F94" s="22"/>
@@ -4261,9 +4159,8 @@
       <c r="L94" s="22"/>
       <c r="M94" s="22"/>
       <c r="N94" s="23"/>
-      <c r="O94" s="23"/>
-    </row>
-    <row r="95" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="95" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A95" s="22"/>
       <c r="E95" s="22"/>
       <c r="F95" s="22"/>
@@ -4274,9 +4171,8 @@
       <c r="L95" s="22"/>
       <c r="M95" s="22"/>
       <c r="N95" s="23"/>
-      <c r="O95" s="23"/>
-    </row>
-    <row r="96" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="96" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A96" s="22"/>
       <c r="E96" s="22"/>
       <c r="F96" s="22"/>
@@ -4287,9 +4183,8 @@
       <c r="L96" s="22"/>
       <c r="M96" s="22"/>
       <c r="N96" s="23"/>
-      <c r="O96" s="23"/>
-    </row>
-    <row r="97" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="97" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A97" s="22"/>
       <c r="E97" s="22"/>
       <c r="F97" s="22"/>
@@ -4300,9 +4195,8 @@
       <c r="L97" s="22"/>
       <c r="M97" s="22"/>
       <c r="N97" s="23"/>
-      <c r="O97" s="23"/>
-    </row>
-    <row r="98" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="98" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A98" s="22"/>
       <c r="E98" s="22"/>
       <c r="F98" s="22"/>
@@ -4313,9 +4207,8 @@
       <c r="L98" s="22"/>
       <c r="M98" s="22"/>
       <c r="N98" s="23"/>
-      <c r="O98" s="23"/>
-    </row>
-    <row r="99" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="99" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A99" s="22"/>
       <c r="E99" s="22"/>
       <c r="F99" s="22"/>
@@ -4326,9 +4219,8 @@
       <c r="L99" s="22"/>
       <c r="M99" s="22"/>
       <c r="N99" s="23"/>
-      <c r="O99" s="23"/>
-    </row>
-    <row r="100" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="100" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A100" s="22"/>
       <c r="E100" s="22"/>
       <c r="F100" s="22"/>
@@ -4339,9 +4231,8 @@
       <c r="L100" s="22"/>
       <c r="M100" s="22"/>
       <c r="N100" s="23"/>
-      <c r="O100" s="23"/>
-    </row>
-    <row r="101" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="101" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A101" s="22"/>
       <c r="E101" s="22"/>
       <c r="F101" s="22"/>
@@ -4352,9 +4243,8 @@
       <c r="L101" s="22"/>
       <c r="M101" s="22"/>
       <c r="N101" s="23"/>
-      <c r="O101" s="23"/>
-    </row>
-    <row r="102" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="102" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A102" s="22"/>
       <c r="E102" s="22"/>
       <c r="F102" s="22"/>
@@ -4365,9 +4255,8 @@
       <c r="L102" s="22"/>
       <c r="M102" s="22"/>
       <c r="N102" s="23"/>
-      <c r="O102" s="23"/>
-    </row>
-    <row r="103" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="103" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A103" s="22"/>
       <c r="E103" s="22"/>
       <c r="F103" s="22"/>
@@ -4378,9 +4267,8 @@
       <c r="L103" s="22"/>
       <c r="M103" s="22"/>
       <c r="N103" s="23"/>
-      <c r="O103" s="23"/>
-    </row>
-    <row r="104" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="104" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A104" s="22"/>
       <c r="E104" s="22"/>
       <c r="F104" s="22"/>
@@ -4391,9 +4279,8 @@
       <c r="L104" s="22"/>
       <c r="M104" s="22"/>
       <c r="N104" s="23"/>
-      <c r="O104" s="23"/>
-    </row>
-    <row r="105" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="105" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A105" s="22"/>
       <c r="E105" s="22"/>
       <c r="F105" s="22"/>
@@ -4404,9 +4291,8 @@
       <c r="L105" s="22"/>
       <c r="M105" s="22"/>
       <c r="N105" s="23"/>
-      <c r="O105" s="23"/>
-    </row>
-    <row r="106" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="106" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A106" s="22"/>
       <c r="E106" s="22"/>
       <c r="F106" s="22"/>
@@ -4417,9 +4303,8 @@
       <c r="L106" s="22"/>
       <c r="M106" s="22"/>
       <c r="N106" s="23"/>
-      <c r="O106" s="23"/>
-    </row>
-    <row r="107" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="107" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A107" s="22"/>
       <c r="E107" s="22"/>
       <c r="F107" s="22"/>
@@ -4430,9 +4315,8 @@
       <c r="L107" s="22"/>
       <c r="M107" s="22"/>
       <c r="N107" s="23"/>
-      <c r="O107" s="23"/>
-    </row>
-    <row r="108" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="108" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A108" s="22"/>
       <c r="E108" s="22"/>
       <c r="F108" s="22"/>
@@ -4443,9 +4327,8 @@
       <c r="L108" s="22"/>
       <c r="M108" s="22"/>
       <c r="N108" s="23"/>
-      <c r="O108" s="23"/>
-    </row>
-    <row r="109" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="109" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A109" s="22"/>
       <c r="E109" s="22"/>
       <c r="F109" s="22"/>
@@ -4456,9 +4339,8 @@
       <c r="L109" s="22"/>
       <c r="M109" s="22"/>
       <c r="N109" s="23"/>
-      <c r="O109" s="23"/>
-    </row>
-    <row r="110" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="110" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A110" s="22"/>
       <c r="E110" s="22"/>
       <c r="F110" s="22"/>
@@ -4469,9 +4351,8 @@
       <c r="L110" s="22"/>
       <c r="M110" s="22"/>
       <c r="N110" s="23"/>
-      <c r="O110" s="23"/>
-    </row>
-    <row r="111" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="111" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A111" s="22"/>
       <c r="E111" s="22"/>
       <c r="F111" s="22"/>
@@ -4482,9 +4363,8 @@
       <c r="L111" s="22"/>
       <c r="M111" s="22"/>
       <c r="N111" s="23"/>
-      <c r="O111" s="23"/>
-    </row>
-    <row r="112" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="112" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A112" s="22"/>
       <c r="E112" s="22"/>
       <c r="F112" s="22"/>
@@ -4495,9 +4375,8 @@
       <c r="L112" s="22"/>
       <c r="M112" s="22"/>
       <c r="N112" s="23"/>
-      <c r="O112" s="23"/>
-    </row>
-    <row r="113" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="113" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A113" s="22"/>
       <c r="E113" s="22"/>
       <c r="F113" s="22"/>
@@ -4508,9 +4387,8 @@
       <c r="L113" s="22"/>
       <c r="M113" s="22"/>
       <c r="N113" s="23"/>
-      <c r="O113" s="23"/>
-    </row>
-    <row r="114" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="114" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A114" s="22"/>
       <c r="E114" s="22"/>
       <c r="F114" s="22"/>
@@ -4521,9 +4399,8 @@
       <c r="L114" s="22"/>
       <c r="M114" s="22"/>
       <c r="N114" s="23"/>
-      <c r="O114" s="23"/>
-    </row>
-    <row r="115" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="115" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A115" s="22"/>
       <c r="E115" s="22"/>
       <c r="F115" s="22"/>
@@ -4534,9 +4411,8 @@
       <c r="L115" s="22"/>
       <c r="M115" s="22"/>
       <c r="N115" s="23"/>
-      <c r="O115" s="23"/>
-    </row>
-    <row r="116" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="116" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A116" s="22"/>
       <c r="E116" s="22"/>
       <c r="F116" s="22"/>
@@ -4547,9 +4423,8 @@
       <c r="L116" s="22"/>
       <c r="M116" s="22"/>
       <c r="N116" s="23"/>
-      <c r="O116" s="23"/>
-    </row>
-    <row r="117" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="117" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A117" s="22"/>
       <c r="E117" s="22"/>
       <c r="F117" s="22"/>
@@ -4560,9 +4435,8 @@
       <c r="L117" s="22"/>
       <c r="M117" s="22"/>
       <c r="N117" s="23"/>
-      <c r="O117" s="23"/>
-    </row>
-    <row r="118" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="118" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A118" s="22"/>
       <c r="E118" s="22"/>
       <c r="F118" s="22"/>
@@ -4573,9 +4447,8 @@
       <c r="L118" s="22"/>
       <c r="M118" s="22"/>
       <c r="N118" s="23"/>
-      <c r="O118" s="23"/>
-    </row>
-    <row r="119" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="119" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A119" s="22"/>
       <c r="E119" s="22"/>
       <c r="F119" s="22"/>
@@ -4586,9 +4459,8 @@
       <c r="L119" s="22"/>
       <c r="M119" s="22"/>
       <c r="N119" s="23"/>
-      <c r="O119" s="23"/>
-    </row>
-    <row r="120" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="120" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A120" s="22"/>
       <c r="E120" s="22"/>
       <c r="F120" s="22"/>
@@ -4599,9 +4471,8 @@
       <c r="L120" s="22"/>
       <c r="M120" s="22"/>
       <c r="N120" s="23"/>
-      <c r="O120" s="23"/>
-    </row>
-    <row r="121" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="121" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A121" s="22"/>
       <c r="E121" s="22"/>
       <c r="F121" s="22"/>
@@ -4612,9 +4483,8 @@
       <c r="L121" s="22"/>
       <c r="M121" s="22"/>
       <c r="N121" s="23"/>
-      <c r="O121" s="23"/>
-    </row>
-    <row r="122" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="122" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A122" s="22"/>
       <c r="E122" s="22"/>
       <c r="F122" s="22"/>
@@ -4625,9 +4495,8 @@
       <c r="L122" s="22"/>
       <c r="M122" s="22"/>
       <c r="N122" s="23"/>
-      <c r="O122" s="23"/>
-    </row>
-    <row r="123" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="123" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A123" s="22"/>
       <c r="E123" s="22"/>
       <c r="F123" s="22"/>
@@ -4638,9 +4507,8 @@
       <c r="L123" s="22"/>
       <c r="M123" s="22"/>
       <c r="N123" s="23"/>
-      <c r="O123" s="23"/>
-    </row>
-    <row r="124" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="124" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A124" s="22"/>
       <c r="E124" s="22"/>
       <c r="F124" s="22"/>
@@ -4651,9 +4519,8 @@
       <c r="L124" s="22"/>
       <c r="M124" s="22"/>
       <c r="N124" s="23"/>
-      <c r="O124" s="23"/>
-    </row>
-    <row r="125" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="125" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A125" s="22"/>
       <c r="E125" s="22"/>
       <c r="F125" s="22"/>
@@ -4664,9 +4531,8 @@
       <c r="L125" s="22"/>
       <c r="M125" s="22"/>
       <c r="N125" s="23"/>
-      <c r="O125" s="23"/>
-    </row>
-    <row r="126" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="126" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A126" s="22"/>
       <c r="E126" s="22"/>
       <c r="F126" s="22"/>
@@ -4677,9 +4543,8 @@
       <c r="L126" s="22"/>
       <c r="M126" s="22"/>
       <c r="N126" s="23"/>
-      <c r="O126" s="23"/>
-    </row>
-    <row r="127" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="127" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A127" s="22"/>
       <c r="E127" s="22"/>
       <c r="F127" s="22"/>
@@ -4690,9 +4555,8 @@
       <c r="L127" s="22"/>
       <c r="M127" s="22"/>
       <c r="N127" s="23"/>
-      <c r="O127" s="23"/>
-    </row>
-    <row r="128" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="128" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A128" s="22"/>
       <c r="E128" s="22"/>
       <c r="F128" s="22"/>
@@ -4703,9 +4567,8 @@
       <c r="L128" s="22"/>
       <c r="M128" s="22"/>
       <c r="N128" s="23"/>
-      <c r="O128" s="23"/>
-    </row>
-    <row r="129" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="129" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A129" s="22"/>
       <c r="E129" s="22"/>
       <c r="F129" s="22"/>
@@ -4716,9 +4579,8 @@
       <c r="L129" s="22"/>
       <c r="M129" s="22"/>
       <c r="N129" s="23"/>
-      <c r="O129" s="23"/>
-    </row>
-    <row r="130" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="130" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A130" s="22"/>
       <c r="E130" s="22"/>
       <c r="F130" s="22"/>
@@ -4729,9 +4591,8 @@
       <c r="L130" s="22"/>
       <c r="M130" s="22"/>
       <c r="N130" s="23"/>
-      <c r="O130" s="23"/>
-    </row>
-    <row r="131" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="131" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A131" s="22"/>
       <c r="E131" s="22"/>
       <c r="F131" s="22"/>
@@ -4742,9 +4603,8 @@
       <c r="L131" s="22"/>
       <c r="M131" s="22"/>
       <c r="N131" s="23"/>
-      <c r="O131" s="23"/>
-    </row>
-    <row r="132" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="132" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A132" s="22"/>
       <c r="E132" s="22"/>
       <c r="F132" s="22"/>
@@ -4755,9 +4615,8 @@
       <c r="L132" s="22"/>
       <c r="M132" s="22"/>
       <c r="N132" s="23"/>
-      <c r="O132" s="23"/>
-    </row>
-    <row r="133" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="133" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A133" s="22"/>
       <c r="E133" s="22"/>
       <c r="F133" s="22"/>
@@ -4768,9 +4627,8 @@
       <c r="L133" s="22"/>
       <c r="M133" s="22"/>
       <c r="N133" s="23"/>
-      <c r="O133" s="23"/>
-    </row>
-    <row r="134" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="134" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A134" s="22"/>
       <c r="E134" s="22"/>
       <c r="F134" s="22"/>
@@ -4781,9 +4639,8 @@
       <c r="L134" s="22"/>
       <c r="M134" s="22"/>
       <c r="N134" s="23"/>
-      <c r="O134" s="23"/>
-    </row>
-    <row r="135" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="135" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A135" s="22"/>
       <c r="E135" s="22"/>
       <c r="F135" s="22"/>
@@ -4794,9 +4651,8 @@
       <c r="L135" s="22"/>
       <c r="M135" s="22"/>
       <c r="N135" s="23"/>
-      <c r="O135" s="23"/>
-    </row>
-    <row r="136" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="136" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A136" s="22"/>
       <c r="E136" s="22"/>
       <c r="F136" s="22"/>
@@ -4807,9 +4663,8 @@
       <c r="L136" s="22"/>
       <c r="M136" s="22"/>
       <c r="N136" s="23"/>
-      <c r="O136" s="23"/>
-    </row>
-    <row r="137" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="137" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A137" s="22"/>
       <c r="E137" s="22"/>
       <c r="F137" s="22"/>
@@ -4820,9 +4675,8 @@
       <c r="L137" s="22"/>
       <c r="M137" s="22"/>
       <c r="N137" s="23"/>
-      <c r="O137" s="23"/>
-    </row>
-    <row r="138" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="138" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A138" s="22"/>
       <c r="E138" s="22"/>
       <c r="F138" s="22"/>
@@ -4833,9 +4687,8 @@
       <c r="L138" s="22"/>
       <c r="M138" s="22"/>
       <c r="N138" s="23"/>
-      <c r="O138" s="23"/>
-    </row>
-    <row r="139" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="139" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A139" s="22"/>
       <c r="E139" s="22"/>
       <c r="F139" s="22"/>
@@ -4846,9 +4699,8 @@
       <c r="L139" s="22"/>
       <c r="M139" s="22"/>
       <c r="N139" s="23"/>
-      <c r="O139" s="23"/>
-    </row>
-    <row r="140" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="140" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A140" s="22"/>
       <c r="E140" s="22"/>
       <c r="F140" s="22"/>
@@ -4859,9 +4711,8 @@
       <c r="L140" s="22"/>
       <c r="M140" s="22"/>
       <c r="N140" s="23"/>
-      <c r="O140" s="23"/>
-    </row>
-    <row r="141" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="141" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A141" s="22"/>
       <c r="E141" s="22"/>
       <c r="F141" s="22"/>
@@ -4872,9 +4723,8 @@
       <c r="L141" s="22"/>
       <c r="M141" s="22"/>
       <c r="N141" s="23"/>
-      <c r="O141" s="23"/>
-    </row>
-    <row r="142" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="142" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A142" s="22"/>
       <c r="E142" s="22"/>
       <c r="F142" s="22"/>
@@ -4885,9 +4735,8 @@
       <c r="L142" s="22"/>
       <c r="M142" s="22"/>
       <c r="N142" s="23"/>
-      <c r="O142" s="23"/>
-    </row>
-    <row r="143" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="143" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A143" s="22"/>
       <c r="E143" s="22"/>
       <c r="F143" s="22"/>
@@ -4898,9 +4747,8 @@
       <c r="L143" s="22"/>
       <c r="M143" s="22"/>
       <c r="N143" s="23"/>
-      <c r="O143" s="23"/>
-    </row>
-    <row r="144" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="144" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A144" s="22"/>
       <c r="E144" s="22"/>
       <c r="F144" s="22"/>
@@ -4911,9 +4759,8 @@
       <c r="L144" s="22"/>
       <c r="M144" s="22"/>
       <c r="N144" s="23"/>
-      <c r="O144" s="23"/>
-    </row>
-    <row r="145" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="145" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A145" s="22"/>
       <c r="E145" s="22"/>
       <c r="F145" s="22"/>
@@ -4924,9 +4771,8 @@
       <c r="L145" s="22"/>
       <c r="M145" s="22"/>
       <c r="N145" s="23"/>
-      <c r="O145" s="23"/>
-    </row>
-    <row r="146" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="146" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A146" s="22"/>
       <c r="E146" s="22"/>
       <c r="F146" s="22"/>
@@ -4937,9 +4783,8 @@
       <c r="L146" s="22"/>
       <c r="M146" s="22"/>
       <c r="N146" s="23"/>
-      <c r="O146" s="23"/>
-    </row>
-    <row r="147" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="147" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A147" s="22"/>
       <c r="E147" s="22"/>
       <c r="F147" s="22"/>
@@ -4950,9 +4795,8 @@
       <c r="L147" s="22"/>
       <c r="M147" s="22"/>
       <c r="N147" s="23"/>
-      <c r="O147" s="23"/>
-    </row>
-    <row r="148" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="148" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A148" s="22"/>
       <c r="E148" s="22"/>
       <c r="F148" s="22"/>
@@ -4963,9 +4807,8 @@
       <c r="L148" s="22"/>
       <c r="M148" s="22"/>
       <c r="N148" s="23"/>
-      <c r="O148" s="23"/>
-    </row>
-    <row r="149" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="149" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A149" s="22"/>
       <c r="E149" s="22"/>
       <c r="F149" s="22"/>
@@ -4976,9 +4819,8 @@
       <c r="L149" s="22"/>
       <c r="M149" s="22"/>
       <c r="N149" s="23"/>
-      <c r="O149" s="23"/>
-    </row>
-    <row r="150" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="150" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A150" s="22"/>
       <c r="E150" s="22"/>
       <c r="F150" s="22"/>
@@ -4989,9 +4831,8 @@
       <c r="L150" s="22"/>
       <c r="M150" s="22"/>
       <c r="N150" s="23"/>
-      <c r="O150" s="23"/>
-    </row>
-    <row r="151" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="151" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A151" s="22"/>
       <c r="E151" s="22"/>
       <c r="F151" s="22"/>
@@ -5002,9 +4843,8 @@
       <c r="L151" s="22"/>
       <c r="M151" s="22"/>
       <c r="N151" s="23"/>
-      <c r="O151" s="23"/>
-    </row>
-    <row r="152" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="152" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A152" s="22"/>
       <c r="E152" s="22"/>
       <c r="F152" s="22"/>
@@ -5015,9 +4855,8 @@
       <c r="L152" s="22"/>
       <c r="M152" s="22"/>
       <c r="N152" s="23"/>
-      <c r="O152" s="23"/>
-    </row>
-    <row r="153" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="153" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A153" s="22"/>
       <c r="E153" s="22"/>
       <c r="F153" s="22"/>
@@ -5028,9 +4867,8 @@
       <c r="L153" s="22"/>
       <c r="M153" s="22"/>
       <c r="N153" s="23"/>
-      <c r="O153" s="23"/>
-    </row>
-    <row r="154" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="154" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A154" s="22"/>
       <c r="E154" s="22"/>
       <c r="F154" s="22"/>
@@ -5041,9 +4879,8 @@
       <c r="L154" s="22"/>
       <c r="M154" s="22"/>
       <c r="N154" s="23"/>
-      <c r="O154" s="23"/>
-    </row>
-    <row r="155" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="155" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A155" s="22"/>
       <c r="E155" s="22"/>
       <c r="F155" s="22"/>
@@ -5054,9 +4891,8 @@
       <c r="L155" s="22"/>
       <c r="M155" s="22"/>
       <c r="N155" s="23"/>
-      <c r="O155" s="23"/>
-    </row>
-    <row r="156" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="156" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A156" s="22"/>
       <c r="E156" s="22"/>
       <c r="F156" s="22"/>
@@ -5067,9 +4903,8 @@
       <c r="L156" s="22"/>
       <c r="M156" s="22"/>
       <c r="N156" s="23"/>
-      <c r="O156" s="23"/>
-    </row>
-    <row r="157" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="157" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A157" s="22"/>
       <c r="E157" s="22"/>
       <c r="F157" s="22"/>
@@ -5080,9 +4915,8 @@
       <c r="L157" s="22"/>
       <c r="M157" s="22"/>
       <c r="N157" s="23"/>
-      <c r="O157" s="23"/>
-    </row>
-    <row r="158" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="158" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A158" s="22"/>
       <c r="E158" s="22"/>
       <c r="F158" s="22"/>
@@ -5093,9 +4927,8 @@
       <c r="L158" s="22"/>
       <c r="M158" s="22"/>
       <c r="N158" s="23"/>
-      <c r="O158" s="23"/>
-    </row>
-    <row r="159" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="159" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A159" s="22"/>
       <c r="E159" s="22"/>
       <c r="F159" s="22"/>
@@ -5106,9 +4939,8 @@
       <c r="L159" s="22"/>
       <c r="M159" s="22"/>
       <c r="N159" s="23"/>
-      <c r="O159" s="23"/>
-    </row>
-    <row r="160" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="160" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A160" s="22"/>
       <c r="E160" s="22"/>
       <c r="F160" s="22"/>
@@ -5119,9 +4951,8 @@
       <c r="L160" s="22"/>
       <c r="M160" s="22"/>
       <c r="N160" s="23"/>
-      <c r="O160" s="23"/>
-    </row>
-    <row r="161" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="161" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A161" s="22"/>
       <c r="E161" s="22"/>
       <c r="F161" s="22"/>
@@ -5132,9 +4963,8 @@
       <c r="L161" s="22"/>
       <c r="M161" s="22"/>
       <c r="N161" s="23"/>
-      <c r="O161" s="23"/>
-    </row>
-    <row r="162" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="162" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A162" s="22"/>
       <c r="E162" s="22"/>
       <c r="F162" s="22"/>
@@ -5145,9 +4975,8 @@
       <c r="L162" s="22"/>
       <c r="M162" s="22"/>
       <c r="N162" s="23"/>
-      <c r="O162" s="23"/>
-    </row>
-    <row r="163" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="163" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A163" s="22"/>
       <c r="E163" s="22"/>
       <c r="F163" s="22"/>
@@ -5158,9 +4987,8 @@
       <c r="L163" s="22"/>
       <c r="M163" s="22"/>
       <c r="N163" s="23"/>
-      <c r="O163" s="23"/>
-    </row>
-    <row r="164" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="164" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A164" s="22"/>
       <c r="E164" s="22"/>
       <c r="F164" s="22"/>
@@ -5171,9 +4999,8 @@
       <c r="L164" s="22"/>
       <c r="M164" s="22"/>
       <c r="N164" s="23"/>
-      <c r="O164" s="23"/>
-    </row>
-    <row r="165" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="165" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A165" s="22"/>
       <c r="E165" s="22"/>
       <c r="F165" s="22"/>
@@ -5184,9 +5011,8 @@
       <c r="L165" s="22"/>
       <c r="M165" s="22"/>
       <c r="N165" s="23"/>
-      <c r="O165" s="23"/>
-    </row>
-    <row r="166" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="166" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A166" s="22"/>
       <c r="E166" s="22"/>
       <c r="F166" s="22"/>
@@ -5197,9 +5023,8 @@
       <c r="L166" s="22"/>
       <c r="M166" s="22"/>
       <c r="N166" s="23"/>
-      <c r="O166" s="23"/>
-    </row>
-    <row r="167" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="167" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A167" s="22"/>
       <c r="E167" s="22"/>
       <c r="F167" s="22"/>
@@ -5210,9 +5035,8 @@
       <c r="L167" s="22"/>
       <c r="M167" s="22"/>
       <c r="N167" s="23"/>
-      <c r="O167" s="23"/>
-    </row>
-    <row r="168" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="168" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A168" s="22"/>
       <c r="E168" s="22"/>
       <c r="F168" s="22"/>
@@ -5223,9 +5047,8 @@
       <c r="L168" s="22"/>
       <c r="M168" s="22"/>
       <c r="N168" s="23"/>
-      <c r="O168" s="23"/>
-    </row>
-    <row r="169" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="169" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A169" s="22"/>
       <c r="E169" s="22"/>
       <c r="F169" s="22"/>
@@ -5236,9 +5059,8 @@
       <c r="L169" s="22"/>
       <c r="M169" s="22"/>
       <c r="N169" s="23"/>
-      <c r="O169" s="23"/>
-    </row>
-    <row r="170" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="170" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A170" s="22"/>
       <c r="E170" s="22"/>
       <c r="F170" s="22"/>
@@ -5249,9 +5071,8 @@
       <c r="L170" s="22"/>
       <c r="M170" s="22"/>
       <c r="N170" s="23"/>
-      <c r="O170" s="23"/>
-    </row>
-    <row r="171" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="171" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A171" s="22"/>
       <c r="E171" s="22"/>
       <c r="F171" s="22"/>
@@ -5262,9 +5083,8 @@
       <c r="L171" s="22"/>
       <c r="M171" s="22"/>
       <c r="N171" s="23"/>
-      <c r="O171" s="23"/>
-    </row>
-    <row r="172" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="172" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A172" s="22"/>
       <c r="E172" s="22"/>
       <c r="F172" s="22"/>
@@ -5275,9 +5095,8 @@
       <c r="L172" s="22"/>
       <c r="M172" s="22"/>
       <c r="N172" s="23"/>
-      <c r="O172" s="23"/>
-    </row>
-    <row r="173" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="173" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A173" s="22"/>
       <c r="E173" s="22"/>
       <c r="F173" s="22"/>
@@ -5288,9 +5107,8 @@
       <c r="L173" s="22"/>
       <c r="M173" s="22"/>
       <c r="N173" s="23"/>
-      <c r="O173" s="23"/>
-    </row>
-    <row r="174" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="174" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A174" s="22"/>
       <c r="E174" s="22"/>
       <c r="F174" s="22"/>
@@ -5301,9 +5119,8 @@
       <c r="L174" s="22"/>
       <c r="M174" s="22"/>
       <c r="N174" s="23"/>
-      <c r="O174" s="23"/>
-    </row>
-    <row r="175" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="175" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A175" s="22"/>
       <c r="E175" s="22"/>
       <c r="F175" s="22"/>
@@ -5314,9 +5131,8 @@
       <c r="L175" s="22"/>
       <c r="M175" s="22"/>
       <c r="N175" s="23"/>
-      <c r="O175" s="23"/>
-    </row>
-    <row r="176" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="176" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A176" s="22"/>
       <c r="E176" s="22"/>
       <c r="F176" s="22"/>
@@ -5327,9 +5143,8 @@
       <c r="L176" s="22"/>
       <c r="M176" s="22"/>
       <c r="N176" s="23"/>
-      <c r="O176" s="23"/>
-    </row>
-    <row r="177" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="177" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A177" s="22"/>
       <c r="E177" s="22"/>
       <c r="F177" s="22"/>
@@ -5340,9 +5155,8 @@
       <c r="L177" s="22"/>
       <c r="M177" s="22"/>
       <c r="N177" s="23"/>
-      <c r="O177" s="23"/>
-    </row>
-    <row r="178" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="178" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A178" s="22"/>
       <c r="E178" s="22"/>
       <c r="F178" s="22"/>
@@ -5353,9 +5167,8 @@
       <c r="L178" s="22"/>
       <c r="M178" s="22"/>
       <c r="N178" s="23"/>
-      <c r="O178" s="23"/>
-    </row>
-    <row r="179" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="179" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A179" s="22"/>
       <c r="E179" s="22"/>
       <c r="F179" s="22"/>
@@ -5366,9 +5179,8 @@
       <c r="L179" s="22"/>
       <c r="M179" s="22"/>
       <c r="N179" s="23"/>
-      <c r="O179" s="23"/>
-    </row>
-    <row r="180" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="180" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A180" s="22"/>
       <c r="E180" s="22"/>
       <c r="F180" s="22"/>
@@ -5379,9 +5191,8 @@
       <c r="L180" s="22"/>
       <c r="M180" s="22"/>
       <c r="N180" s="23"/>
-      <c r="O180" s="23"/>
-    </row>
-    <row r="181" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="181" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A181" s="22"/>
       <c r="E181" s="22"/>
       <c r="F181" s="22"/>
@@ -5392,9 +5203,8 @@
       <c r="L181" s="22"/>
       <c r="M181" s="22"/>
       <c r="N181" s="23"/>
-      <c r="O181" s="23"/>
-    </row>
-    <row r="182" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="182" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A182" s="22"/>
       <c r="E182" s="22"/>
       <c r="F182" s="22"/>
@@ -5405,9 +5215,8 @@
       <c r="L182" s="22"/>
       <c r="M182" s="22"/>
       <c r="N182" s="23"/>
-      <c r="O182" s="23"/>
-    </row>
-    <row r="183" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="183" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A183" s="22"/>
       <c r="E183" s="22"/>
       <c r="F183" s="22"/>
@@ -5418,9 +5227,8 @@
       <c r="L183" s="22"/>
       <c r="M183" s="22"/>
       <c r="N183" s="23"/>
-      <c r="O183" s="23"/>
-    </row>
-    <row r="184" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="184" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A184" s="22"/>
       <c r="E184" s="22"/>
       <c r="F184" s="22"/>
@@ -5431,9 +5239,8 @@
       <c r="L184" s="22"/>
       <c r="M184" s="22"/>
       <c r="N184" s="23"/>
-      <c r="O184" s="23"/>
-    </row>
-    <row r="185" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="185" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A185" s="22"/>
       <c r="E185" s="22"/>
       <c r="F185" s="22"/>
@@ -5444,9 +5251,8 @@
       <c r="L185" s="22"/>
       <c r="M185" s="22"/>
       <c r="N185" s="23"/>
-      <c r="O185" s="23"/>
-    </row>
-    <row r="186" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="186" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A186" s="22"/>
       <c r="E186" s="22"/>
       <c r="F186" s="22"/>
@@ -5457,9 +5263,8 @@
       <c r="L186" s="22"/>
       <c r="M186" s="22"/>
       <c r="N186" s="23"/>
-      <c r="O186" s="23"/>
-    </row>
-    <row r="187" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="187" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A187" s="22"/>
       <c r="E187" s="22"/>
       <c r="F187" s="22"/>
@@ -5470,9 +5275,8 @@
       <c r="L187" s="22"/>
       <c r="M187" s="22"/>
       <c r="N187" s="23"/>
-      <c r="O187" s="23"/>
-    </row>
-    <row r="188" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="188" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A188" s="22"/>
       <c r="E188" s="22"/>
       <c r="F188" s="22"/>
@@ -5483,9 +5287,8 @@
       <c r="L188" s="22"/>
       <c r="M188" s="22"/>
       <c r="N188" s="23"/>
-      <c r="O188" s="23"/>
-    </row>
-    <row r="189" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="189" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A189" s="22"/>
       <c r="E189" s="22"/>
       <c r="F189" s="22"/>
@@ -5496,9 +5299,8 @@
       <c r="L189" s="22"/>
       <c r="M189" s="22"/>
       <c r="N189" s="23"/>
-      <c r="O189" s="23"/>
-    </row>
-    <row r="190" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="190" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A190" s="22"/>
       <c r="E190" s="22"/>
       <c r="F190" s="22"/>
@@ -5509,9 +5311,8 @@
       <c r="L190" s="22"/>
       <c r="M190" s="22"/>
       <c r="N190" s="23"/>
-      <c r="O190" s="23"/>
-    </row>
-    <row r="191" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="191" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A191" s="22"/>
       <c r="E191" s="22"/>
       <c r="F191" s="22"/>
@@ -5522,9 +5323,8 @@
       <c r="L191" s="22"/>
       <c r="M191" s="22"/>
       <c r="N191" s="23"/>
-      <c r="O191" s="23"/>
-    </row>
-    <row r="192" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="192" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A192" s="22"/>
       <c r="E192" s="22"/>
       <c r="F192" s="22"/>
@@ -5535,9 +5335,8 @@
       <c r="L192" s="22"/>
       <c r="M192" s="22"/>
       <c r="N192" s="23"/>
-      <c r="O192" s="23"/>
-    </row>
-    <row r="193" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="193" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A193" s="22"/>
       <c r="E193" s="22"/>
       <c r="F193" s="22"/>
@@ -5548,9 +5347,8 @@
       <c r="L193" s="22"/>
       <c r="M193" s="22"/>
       <c r="N193" s="23"/>
-      <c r="O193" s="23"/>
-    </row>
-    <row r="194" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="194" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A194" s="22"/>
       <c r="E194" s="22"/>
       <c r="F194" s="22"/>
@@ -5561,9 +5359,8 @@
       <c r="L194" s="22"/>
       <c r="M194" s="22"/>
       <c r="N194" s="23"/>
-      <c r="O194" s="23"/>
-    </row>
-    <row r="195" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="195" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A195" s="22"/>
       <c r="E195" s="22"/>
       <c r="F195" s="22"/>
@@ -5574,9 +5371,8 @@
       <c r="L195" s="22"/>
       <c r="M195" s="22"/>
       <c r="N195" s="23"/>
-      <c r="O195" s="23"/>
-    </row>
-    <row r="196" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="196" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A196" s="22"/>
       <c r="E196" s="22"/>
       <c r="F196" s="22"/>
@@ -5587,9 +5383,8 @@
       <c r="L196" s="22"/>
       <c r="M196" s="22"/>
       <c r="N196" s="23"/>
-      <c r="O196" s="23"/>
-    </row>
-    <row r="197" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="197" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A197" s="22"/>
       <c r="E197" s="22"/>
       <c r="F197" s="22"/>
@@ -5600,9 +5395,8 @@
       <c r="L197" s="22"/>
       <c r="M197" s="22"/>
       <c r="N197" s="23"/>
-      <c r="O197" s="23"/>
-    </row>
-    <row r="198" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="198" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A198" s="22"/>
       <c r="E198" s="22"/>
       <c r="F198" s="22"/>
@@ -5613,9 +5407,8 @@
       <c r="L198" s="22"/>
       <c r="M198" s="22"/>
       <c r="N198" s="23"/>
-      <c r="O198" s="23"/>
-    </row>
-    <row r="199" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="199" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A199" s="22"/>
       <c r="E199" s="22"/>
       <c r="F199" s="22"/>
@@ -5626,9 +5419,8 @@
       <c r="L199" s="22"/>
       <c r="M199" s="22"/>
       <c r="N199" s="23"/>
-      <c r="O199" s="23"/>
-    </row>
-    <row r="200" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="200" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A200" s="22"/>
       <c r="E200" s="22"/>
       <c r="F200" s="22"/>
@@ -5639,9 +5431,8 @@
       <c r="L200" s="22"/>
       <c r="M200" s="22"/>
       <c r="N200" s="23"/>
-      <c r="O200" s="23"/>
-    </row>
-    <row r="201" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="201" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A201" s="22"/>
       <c r="E201" s="22"/>
       <c r="F201" s="22"/>
@@ -5652,9 +5443,8 @@
       <c r="L201" s="22"/>
       <c r="M201" s="22"/>
       <c r="N201" s="23"/>
-      <c r="O201" s="23"/>
-    </row>
-    <row r="202" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="202" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A202" s="22"/>
       <c r="E202" s="22"/>
       <c r="F202" s="22"/>
@@ -5665,9 +5455,8 @@
       <c r="L202" s="22"/>
       <c r="M202" s="22"/>
       <c r="N202" s="23"/>
-      <c r="O202" s="23"/>
-    </row>
-    <row r="203" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="203" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A203" s="22"/>
       <c r="E203" s="22"/>
       <c r="F203" s="22"/>
@@ -5678,9 +5467,8 @@
       <c r="L203" s="22"/>
       <c r="M203" s="22"/>
       <c r="N203" s="23"/>
-      <c r="O203" s="23"/>
-    </row>
-    <row r="204" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="204" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A204" s="22"/>
       <c r="E204" s="22"/>
       <c r="F204" s="22"/>
@@ -5691,9 +5479,8 @@
       <c r="L204" s="22"/>
       <c r="M204" s="22"/>
       <c r="N204" s="23"/>
-      <c r="O204" s="23"/>
-    </row>
-    <row r="205" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="205" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A205" s="22"/>
       <c r="E205" s="22"/>
       <c r="F205" s="22"/>
@@ -5704,9 +5491,8 @@
       <c r="L205" s="22"/>
       <c r="M205" s="22"/>
       <c r="N205" s="23"/>
-      <c r="O205" s="23"/>
-    </row>
-    <row r="206" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="206" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A206" s="22"/>
       <c r="E206" s="22"/>
       <c r="F206" s="22"/>
@@ -5717,9 +5503,8 @@
       <c r="L206" s="22"/>
       <c r="M206" s="22"/>
       <c r="N206" s="23"/>
-      <c r="O206" s="23"/>
-    </row>
-    <row r="207" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="207" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A207" s="22"/>
       <c r="E207" s="22"/>
       <c r="F207" s="22"/>
@@ -5730,9 +5515,8 @@
       <c r="L207" s="22"/>
       <c r="M207" s="22"/>
       <c r="N207" s="23"/>
-      <c r="O207" s="23"/>
-    </row>
-    <row r="208" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="208" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A208" s="22"/>
       <c r="E208" s="22"/>
       <c r="F208" s="22"/>
@@ -5743,9 +5527,8 @@
       <c r="L208" s="22"/>
       <c r="M208" s="22"/>
       <c r="N208" s="23"/>
-      <c r="O208" s="23"/>
-    </row>
-    <row r="209" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="209" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A209" s="22"/>
       <c r="E209" s="22"/>
       <c r="F209" s="22"/>
@@ -5756,9 +5539,8 @@
       <c r="L209" s="22"/>
       <c r="M209" s="22"/>
       <c r="N209" s="23"/>
-      <c r="O209" s="23"/>
-    </row>
-    <row r="210" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="210" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A210" s="22"/>
       <c r="E210" s="22"/>
       <c r="F210" s="22"/>
@@ -5769,9 +5551,8 @@
       <c r="L210" s="22"/>
       <c r="M210" s="22"/>
       <c r="N210" s="23"/>
-      <c r="O210" s="23"/>
-    </row>
-    <row r="211" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="211" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A211" s="22"/>
       <c r="E211" s="22"/>
       <c r="F211" s="22"/>
@@ -5782,9 +5563,8 @@
       <c r="L211" s="22"/>
       <c r="M211" s="22"/>
       <c r="N211" s="23"/>
-      <c r="O211" s="23"/>
-    </row>
-    <row r="212" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="212" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A212" s="22"/>
       <c r="E212" s="22"/>
       <c r="F212" s="22"/>
@@ -5795,9 +5575,8 @@
       <c r="L212" s="22"/>
       <c r="M212" s="22"/>
       <c r="N212" s="23"/>
-      <c r="O212" s="23"/>
-    </row>
-    <row r="213" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="213" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A213" s="22"/>
       <c r="E213" s="22"/>
       <c r="F213" s="22"/>
@@ -5808,9 +5587,8 @@
       <c r="L213" s="22"/>
       <c r="M213" s="22"/>
       <c r="N213" s="23"/>
-      <c r="O213" s="23"/>
-    </row>
-    <row r="214" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="214" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A214" s="22"/>
       <c r="E214" s="22"/>
       <c r="F214" s="22"/>
@@ -5821,9 +5599,8 @@
       <c r="L214" s="22"/>
       <c r="M214" s="22"/>
       <c r="N214" s="23"/>
-      <c r="O214" s="23"/>
-    </row>
-    <row r="215" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="215" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A215" s="22"/>
       <c r="E215" s="22"/>
       <c r="F215" s="22"/>
@@ -5834,9 +5611,8 @@
       <c r="L215" s="22"/>
       <c r="M215" s="22"/>
       <c r="N215" s="23"/>
-      <c r="O215" s="23"/>
-    </row>
-    <row r="216" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="216" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A216" s="22"/>
       <c r="E216" s="22"/>
       <c r="F216" s="22"/>
@@ -5847,9 +5623,8 @@
       <c r="L216" s="22"/>
       <c r="M216" s="22"/>
       <c r="N216" s="23"/>
-      <c r="O216" s="23"/>
-    </row>
-    <row r="217" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="217" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A217" s="22"/>
       <c r="E217" s="22"/>
       <c r="F217" s="22"/>
@@ -5860,9 +5635,8 @@
       <c r="L217" s="22"/>
       <c r="M217" s="22"/>
       <c r="N217" s="23"/>
-      <c r="O217" s="23"/>
-    </row>
-    <row r="218" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="218" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A218" s="22"/>
       <c r="E218" s="22"/>
       <c r="F218" s="22"/>
@@ -5873,9 +5647,8 @@
       <c r="L218" s="22"/>
       <c r="M218" s="22"/>
       <c r="N218" s="23"/>
-      <c r="O218" s="23"/>
-    </row>
-    <row r="219" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="219" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A219" s="22"/>
       <c r="E219" s="22"/>
       <c r="F219" s="22"/>
@@ -5886,9 +5659,8 @@
       <c r="L219" s="22"/>
       <c r="M219" s="22"/>
       <c r="N219" s="23"/>
-      <c r="O219" s="23"/>
-    </row>
-    <row r="220" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="220" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A220" s="22"/>
       <c r="E220" s="22"/>
       <c r="F220" s="22"/>
@@ -5899,9 +5671,8 @@
       <c r="L220" s="22"/>
       <c r="M220" s="22"/>
       <c r="N220" s="23"/>
-      <c r="O220" s="23"/>
-    </row>
-    <row r="221" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="221" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A221" s="22"/>
       <c r="E221" s="22"/>
       <c r="F221" s="22"/>
@@ -5912,9 +5683,8 @@
       <c r="L221" s="22"/>
       <c r="M221" s="22"/>
       <c r="N221" s="23"/>
-      <c r="O221" s="23"/>
-    </row>
-    <row r="222" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="222" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A222" s="22"/>
       <c r="E222" s="22"/>
       <c r="F222" s="22"/>
@@ -5925,9 +5695,8 @@
       <c r="L222" s="22"/>
       <c r="M222" s="22"/>
       <c r="N222" s="23"/>
-      <c r="O222" s="23"/>
-    </row>
-    <row r="223" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="223" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A223" s="22"/>
       <c r="E223" s="22"/>
       <c r="F223" s="22"/>
@@ -5938,9 +5707,8 @@
       <c r="L223" s="22"/>
       <c r="M223" s="22"/>
       <c r="N223" s="23"/>
-      <c r="O223" s="23"/>
-    </row>
-    <row r="224" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="224" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A224" s="22"/>
       <c r="E224" s="22"/>
       <c r="F224" s="22"/>
@@ -5951,9 +5719,8 @@
       <c r="L224" s="22"/>
       <c r="M224" s="22"/>
       <c r="N224" s="23"/>
-      <c r="O224" s="23"/>
-    </row>
-    <row r="225" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="225" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A225" s="22"/>
       <c r="E225" s="22"/>
       <c r="F225" s="22"/>
@@ -5964,9 +5731,8 @@
       <c r="L225" s="22"/>
       <c r="M225" s="22"/>
       <c r="N225" s="23"/>
-      <c r="O225" s="23"/>
-    </row>
-    <row r="226" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="226" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A226" s="22"/>
       <c r="E226" s="22"/>
       <c r="F226" s="22"/>
@@ -5977,9 +5743,8 @@
       <c r="L226" s="22"/>
       <c r="M226" s="22"/>
       <c r="N226" s="23"/>
-      <c r="O226" s="23"/>
-    </row>
-    <row r="227" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+    </row>
+    <row r="227" spans="1:14" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A227" s="22"/>
       <c r="E227" s="22"/>
       <c r="F227" s="22"/>
@@ -5990,11 +5755,10 @@
       <c r="L227" s="22"/>
       <c r="M227" s="22"/>
       <c r="N227" s="23"/>
-      <c r="O227" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:O1"/>
+    <mergeCell ref="B1:N1"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.70069444444444495" right="0.70069444444444495" top="0.75138888888888899" bottom="0.75138888888888899" header="0.297916666666667" footer="0.297916666666667"/>
